--- a/Standard_Library_TestCaseDocUtil.xlsx
+++ b/Standard_Library_TestCaseDocUtil.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="368">
   <si>
     <t>Test Environment</t>
   </si>
@@ -329,11 +329,6 @@
   <si>
     <t>getDocumentByNumberByVersionByIteration(
    String number, String version, String iteration)</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>createDoc(String docName, String containername,
-   String folder, String type)</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -2078,6 +2073,19 @@
   <si>
     <t>DocUtil.checkOutWTDocument(DocUtil.getDocumentByName("test03"), "boy");</t>
     <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>createDoc(String docName, String containername,
+   String folder, String type)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>createDoc(String number, String name,HashMap&lt;String,Object&gt; attributes, Object primaryContent,
+   ArrayList secondaryContents, WTContainerRef containerRef)</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -3192,49 +3200,49 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -3797,10 +3805,10 @@
     <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -3848,7 +3856,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3871,8 +3879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145:C146"/>
+    <sheetView tabSelected="1" topLeftCell="E157" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3907,7 +3915,7 @@
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -3967,13 +3975,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>4</v>
@@ -3982,187 +3990,187 @@
         <v>5</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="56" customFormat="1" ht="60" customHeight="1">
-      <c r="B7" s="92">
+      <c r="B7" s="91">
         <v>1</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="91" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="101" t="s">
-        <v>148</v>
+      <c r="E7" s="93" t="s">
+        <v>147</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I7" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="57"/>
       <c r="K7" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="56" customFormat="1" ht="51" customHeight="1">
       <c r="A8" s="61"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="93"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="58" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I8" s="62" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="57"/>
       <c r="K8" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="27" customFormat="1" ht="45" customHeight="1">
-      <c r="B9" s="92">
+      <c r="B9" s="91">
         <v>2</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="88" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>149</v>
+      <c r="E9" s="94" t="s">
+        <v>148</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I9" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="27" customFormat="1" ht="42" customHeight="1">
-      <c r="B10" s="93"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="89"/>
       <c r="D10" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="89"/>
       <c r="F10" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I10" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="28"/>
       <c r="K10" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="27" customFormat="1" ht="50.25" customHeight="1">
-      <c r="B11" s="92">
+      <c r="B11" s="91">
         <v>3</v>
       </c>
-      <c r="C11" s="94" t="s">
+      <c r="C11" s="99" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="94" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="35" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I11" s="30" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="27" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B12" s="93"/>
-      <c r="C12" s="95"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="100"/>
       <c r="D12" s="44" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="89"/>
       <c r="F12" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I12" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
+      <c r="B13" s="91">
+        <v>4</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="27" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B13" s="92">
-        <v>4</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>167</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="94" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="35" t="s">
         <v>31</v>
@@ -4175,11 +4183,11 @@
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B14" s="93"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="89"/>
       <c r="D14" s="44" t="s">
         <v>18</v>
@@ -4199,39 +4207,39 @@
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="48" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B15" s="92">
+      <c r="B15" s="91">
         <v>5</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="88" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="91"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="51" t="s">
         <v>37</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="52" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="53"/>
       <c r="K15" s="54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="27" customFormat="1" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B16" s="93"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="89"/>
       <c r="D16" s="44" t="s">
         <v>20</v>
@@ -4244,98 +4252,98 @@
         <v>38</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I16" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="40"/>
       <c r="K16" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="27" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B17" s="92">
+      <c r="B17" s="91">
         <v>6</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="90" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="91"/>
+      <c r="E17" s="94"/>
       <c r="F17" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>34</v>
       </c>
       <c r="H17" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="40"/>
       <c r="K17" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="27" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B18" s="93"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="89"/>
       <c r="D18" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E18" s="89"/>
       <c r="F18" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G18" s="35" t="s">
         <v>40</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I18" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="27" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B19" s="92">
+      <c r="B19" s="91">
         <v>7</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="88" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="88" t="s">
-        <v>264</v>
+      <c r="E19" s="94"/>
+      <c r="F19" s="101" t="s">
+        <v>263</v>
       </c>
       <c r="G19" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>182</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>183</v>
       </c>
       <c r="I19" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="40"/>
       <c r="K19" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="27" customFormat="1" ht="52.5" customHeight="1" thickBot="1">
-      <c r="B20" s="93"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="89"/>
       <c r="D20" s="44" t="s">
         <v>18</v>
@@ -4343,34 +4351,34 @@
       <c r="E20" s="89"/>
       <c r="F20" s="89"/>
       <c r="G20" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I20" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="40"/>
       <c r="K20" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B21" s="92">
+      <c r="B21" s="91">
         <v>8</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="88" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="94" t="s">
         <v>43</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="35"/>
@@ -4379,11 +4387,11 @@
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="27" customFormat="1" ht="46.5" customHeight="1" thickBot="1">
-      <c r="B22" s="93"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="89"/>
       <c r="D22" s="44" t="s">
         <v>18</v>
@@ -4392,27 +4400,27 @@
       <c r="F22" s="45"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I22" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="40"/>
       <c r="K22" s="39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="27" customFormat="1" ht="50.25" customHeight="1" thickBot="1">
-      <c r="B23" s="92">
+      <c r="B23" s="91">
         <v>9</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="88" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="E23" s="94" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="45" t="s">
@@ -4425,11 +4433,11 @@
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="27" customFormat="1" ht="45" customHeight="1" thickBot="1">
-      <c r="B24" s="93"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="89"/>
       <c r="D24" s="44" t="s">
         <v>18</v>
@@ -4437,51 +4445,51 @@
       <c r="E24" s="89"/>
       <c r="F24" s="45"/>
       <c r="G24" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I24" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="40"/>
       <c r="K24" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B25" s="92">
+      <c r="B25" s="91">
         <v>10</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="88" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="91" t="s">
+      <c r="E25" s="94" t="s">
         <v>16</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I25" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B26" s="93"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="89"/>
       <c r="D26" s="44" t="s">
         <v>18</v>
@@ -4495,91 +4503,91 @@
       </c>
       <c r="J26" s="40"/>
       <c r="K26" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B27" s="92">
+      <c r="B27" s="91">
         <v>11</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="88" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="91" t="s">
+      <c r="E27" s="94" t="s">
         <v>16</v>
       </c>
       <c r="F27" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G27" s="35" t="s">
         <v>55</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I27" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B28" s="93"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="89"/>
       <c r="D28" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="89"/>
       <c r="F28" s="45" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="H28" s="35" t="s">
         <v>207</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>208</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="40"/>
       <c r="K28" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B29" s="92">
+      <c r="B29" s="91">
         <v>12</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="88" t="s">
         <v>50</v>
       </c>
       <c r="D29" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="91" t="s">
+      <c r="E29" s="94" t="s">
         <v>16</v>
       </c>
       <c r="F29" s="45" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I29" s="38" t="s">
         <v>15</v>
       </c>
       <c r="J29" s="40"/>
       <c r="K29" s="39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B30" s="93"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="89"/>
       <c r="D30" s="44" t="s">
         <v>18</v>
@@ -4593,20 +4601,20 @@
       </c>
       <c r="J30" s="40"/>
       <c r="K30" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B31" s="92">
-        <v>13</v>
-      </c>
-      <c r="C31" s="90" t="s">
+      <c r="B31" s="91">
+        <v>13</v>
+      </c>
+      <c r="C31" s="88" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="91" t="s">
+      <c r="E31" s="94" t="s">
         <v>52</v>
       </c>
       <c r="F31" s="45" t="s">
@@ -4616,18 +4624,18 @@
         <v>54</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I31" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="40"/>
       <c r="K31" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B32" s="93"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="89"/>
       <c r="D32" s="44" t="s">
         <v>18</v>
@@ -4643,21 +4651,21 @@
       <c r="K32" s="39"/>
     </row>
     <row r="33" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B33" s="92">
+      <c r="B33" s="91">
         <v>14</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="88" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="91"/>
+      <c r="E33" s="94"/>
       <c r="F33" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="35"/>
       <c r="I33" s="38" t="s">
@@ -4665,24 +4673,24 @@
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B34" s="93"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="89"/>
       <c r="D34" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="89"/>
       <c r="F34" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I34" s="38" t="s">
         <v>13</v>
@@ -4691,73 +4699,73 @@
       <c r="K34" s="39"/>
     </row>
     <row r="35" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B35" s="92">
+      <c r="B35" s="91">
         <v>15</v>
       </c>
-      <c r="C35" s="90" t="s">
-        <v>57</v>
+      <c r="C35" s="88" t="s">
+        <v>365</v>
       </c>
       <c r="D35" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="91"/>
+      <c r="E35" s="94"/>
       <c r="F35" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I35" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="40"/>
       <c r="K35" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B36" s="93"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="89"/>
       <c r="D36" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E36" s="89"/>
       <c r="F36" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I36" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="40"/>
       <c r="K36" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B37" s="92">
+      <c r="B37" s="91">
         <v>16</v>
       </c>
-      <c r="C37" s="90" t="s">
-        <v>355</v>
+      <c r="C37" s="88" t="s">
+        <v>354</v>
       </c>
       <c r="D37" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="91"/>
+      <c r="E37" s="94"/>
       <c r="F37" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H37" s="35"/>
       <c r="I37" s="38" t="s">
@@ -4765,63 +4773,63 @@
       </c>
       <c r="J37" s="40"/>
       <c r="K37" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B38" s="93"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="89"/>
       <c r="D38" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="89"/>
       <c r="F38" s="45" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I38" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B39" s="92">
+      <c r="B39" s="91">
         <v>17</v>
       </c>
-      <c r="C39" s="90" t="s">
-        <v>61</v>
+      <c r="C39" s="88" t="s">
+        <v>60</v>
       </c>
       <c r="D39" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="91"/>
+      <c r="E39" s="94"/>
       <c r="F39" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G39" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H39" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I39" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J39" s="40"/>
       <c r="K39" s="39" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B40" s="93"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="89"/>
       <c r="D40" s="44" t="s">
         <v>18</v>
@@ -4829,37 +4837,37 @@
       <c r="E40" s="89"/>
       <c r="F40" s="45"/>
       <c r="G40" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I40" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J40" s="40"/>
       <c r="K40" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B41" s="92">
+      <c r="B41" s="91">
         <v>18</v>
       </c>
-      <c r="C41" s="90" t="s">
-        <v>65</v>
+      <c r="C41" s="88" t="s">
+        <v>64</v>
       </c>
       <c r="D41" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="91" t="s">
+      <c r="E41" s="94" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G41" s="35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" s="35"/>
       <c r="I41" s="38" t="s">
@@ -4867,51 +4875,51 @@
       </c>
       <c r="J41" s="40"/>
       <c r="K41" s="39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B42" s="93"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="89"/>
       <c r="D42" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="89"/>
       <c r="F42" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I42" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J42" s="40"/>
       <c r="K42" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B43" s="92">
+      <c r="B43" s="91">
         <v>19</v>
       </c>
-      <c r="C43" s="90" t="s">
-        <v>68</v>
+      <c r="C43" s="88" t="s">
+        <v>67</v>
       </c>
       <c r="D43" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="91" t="s">
+      <c r="E43" s="94" t="s">
         <v>16</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" s="35"/>
       <c r="I43" s="38" t="s">
@@ -4919,21 +4927,21 @@
       </c>
       <c r="J43" s="40"/>
       <c r="K43" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B44" s="93"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="89"/>
       <c r="D44" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="89"/>
       <c r="F44" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="G44" s="35" t="s">
         <v>76</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>77</v>
       </c>
       <c r="H44" s="35"/>
       <c r="I44" s="38" t="s">
@@ -4943,23 +4951,23 @@
       <c r="K44" s="39"/>
     </row>
     <row r="45" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B45" s="92">
+      <c r="B45" s="91">
         <v>20</v>
       </c>
-      <c r="C45" s="90" t="s">
-        <v>71</v>
+      <c r="C45" s="88" t="s">
+        <v>70</v>
       </c>
       <c r="D45" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="91" t="s">
+      <c r="E45" s="94" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="G45" s="35" t="s">
         <v>73</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>74</v>
       </c>
       <c r="H45" s="35"/>
       <c r="I45" s="38" t="s">
@@ -4969,17 +4977,17 @@
       <c r="K45" s="39"/>
     </row>
     <row r="46" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B46" s="93"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="89"/>
       <c r="D46" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="89"/>
       <c r="F46" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="38" t="s">
@@ -4987,27 +4995,27 @@
       </c>
       <c r="J46" s="40"/>
       <c r="K46" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B47" s="92">
+      <c r="B47" s="91">
         <v>21</v>
       </c>
-      <c r="C47" s="90" t="s">
-        <v>72</v>
+      <c r="C47" s="88" t="s">
+        <v>71</v>
       </c>
       <c r="D47" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="91" t="s">
+      <c r="E47" s="94" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47" s="35"/>
       <c r="I47" s="38" t="s">
@@ -5015,21 +5023,21 @@
       </c>
       <c r="J47" s="40"/>
       <c r="K47" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B48" s="93"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="89"/>
       <c r="D48" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="89"/>
       <c r="F48" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="38" t="s">
@@ -5037,25 +5045,25 @@
       </c>
       <c r="J48" s="40"/>
       <c r="K48" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B49" s="92">
+      <c r="B49" s="91">
         <v>22</v>
       </c>
-      <c r="C49" s="90" t="s">
-        <v>84</v>
+      <c r="C49" s="88" t="s">
+        <v>83</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="91"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H49" s="35"/>
       <c r="I49" s="38" t="s">
@@ -5063,21 +5071,21 @@
       </c>
       <c r="J49" s="40"/>
       <c r="K49" s="39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B50" s="93"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="89"/>
       <c r="D50" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E50" s="89"/>
       <c r="F50" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="38" t="s">
@@ -5085,25 +5093,25 @@
       </c>
       <c r="J50" s="40"/>
       <c r="K50" s="39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B51" s="92">
+      <c r="B51" s="91">
         <v>23</v>
       </c>
-      <c r="C51" s="90" t="s">
-        <v>142</v>
+      <c r="C51" s="88" t="s">
+        <v>141</v>
       </c>
       <c r="D51" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="91"/>
+      <c r="E51" s="94"/>
       <c r="F51" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H51" s="35"/>
       <c r="I51" s="38" t="s">
@@ -5111,21 +5119,21 @@
       </c>
       <c r="J51" s="40"/>
       <c r="K51" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B52" s="93"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="89"/>
       <c r="D52" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H52" s="35"/>
       <c r="I52" s="38" t="s">
@@ -5133,75 +5141,75 @@
       </c>
       <c r="J52" s="40"/>
       <c r="K52" s="39" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="2:11" s="83" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B53" s="92">
+      <c r="B53" s="91">
         <v>24</v>
       </c>
-      <c r="C53" s="98" t="s">
-        <v>143</v>
+      <c r="C53" s="96" t="s">
+        <v>142</v>
       </c>
       <c r="D53" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="96" t="s">
-        <v>91</v>
+      <c r="E53" s="98" t="s">
+        <v>90</v>
       </c>
       <c r="F53" s="78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G53" s="79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H53" s="79"/>
       <c r="I53" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J53" s="81"/>
       <c r="K53" s="82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="2:11" s="83" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B54" s="99"/>
+      <c r="B54" s="95"/>
       <c r="C54" s="97"/>
       <c r="D54" s="77" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="97"/>
       <c r="F54" s="78" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G54" s="79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H54" s="79"/>
       <c r="I54" s="80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J54" s="81"/>
       <c r="K54" s="82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B55" s="92">
+      <c r="B55" s="91">
         <v>25</v>
       </c>
-      <c r="C55" s="90" t="s">
-        <v>89</v>
+      <c r="C55" s="88" t="s">
+        <v>88</v>
       </c>
       <c r="D55" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="91"/>
+      <c r="E55" s="94"/>
       <c r="F55" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H55" s="35"/>
       <c r="I55" s="38" t="s">
@@ -5209,21 +5217,21 @@
       </c>
       <c r="J55" s="40"/>
       <c r="K55" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B56" s="93"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="89"/>
       <c r="D56" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E56" s="89"/>
       <c r="F56" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H56" s="35"/>
       <c r="I56" s="38" t="s">
@@ -5231,27 +5239,27 @@
       </c>
       <c r="J56" s="40"/>
       <c r="K56" s="39" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B57" s="92">
+      <c r="B57" s="91">
         <v>26</v>
       </c>
-      <c r="C57" s="90" t="s">
-        <v>90</v>
+      <c r="C57" s="88" t="s">
+        <v>89</v>
       </c>
       <c r="D57" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="91" t="s">
-        <v>339</v>
+      <c r="E57" s="94" t="s">
+        <v>338</v>
       </c>
       <c r="F57" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="35"/>
       <c r="I57" s="38" t="s">
@@ -5259,47 +5267,47 @@
       </c>
       <c r="J57" s="40"/>
       <c r="K57" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B58" s="93"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="89"/>
       <c r="D58" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E58" s="89"/>
       <c r="F58" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H58" s="35"/>
       <c r="I58" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J58" s="40"/>
       <c r="K58" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="59" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B59" s="92">
+      <c r="B59" s="91">
         <v>27</v>
       </c>
-      <c r="C59" s="90" t="s">
-        <v>96</v>
+      <c r="C59" s="88" t="s">
+        <v>95</v>
       </c>
       <c r="D59" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="91"/>
+      <c r="E59" s="94"/>
       <c r="F59" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H59" s="35"/>
       <c r="I59" s="38" t="s">
@@ -5307,49 +5315,49 @@
       </c>
       <c r="J59" s="40"/>
       <c r="K59" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B60" s="93"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="89"/>
       <c r="D60" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="89"/>
       <c r="F60" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H60" s="35"/>
       <c r="I60" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J60" s="40"/>
       <c r="K60" s="39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B61" s="92">
+      <c r="B61" s="91">
         <v>28</v>
       </c>
-      <c r="C61" s="90" t="s">
-        <v>110</v>
+      <c r="C61" s="88" t="s">
+        <v>109</v>
       </c>
       <c r="D61" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="91" t="s">
-        <v>338</v>
+      <c r="E61" s="94" t="s">
+        <v>337</v>
       </c>
       <c r="F61" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G61" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H61" s="35"/>
       <c r="I61" s="38" t="s">
@@ -5359,39 +5367,39 @@
       <c r="K61" s="39"/>
     </row>
     <row r="62" spans="2:11" s="72" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B62" s="93"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="89"/>
       <c r="D62" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="89"/>
       <c r="F62" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G62" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H62" s="66"/>
       <c r="I62" s="69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J62" s="70"/>
       <c r="K62" s="71"/>
     </row>
     <row r="63" spans="2:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B63" s="92">
+      <c r="B63" s="91">
         <v>29</v>
       </c>
-      <c r="C63" s="90" t="s">
-        <v>109</v>
+      <c r="C63" s="88" t="s">
+        <v>108</v>
       </c>
       <c r="D63" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="91"/>
+      <c r="E63" s="94"/>
       <c r="F63" s="74"/>
       <c r="G63" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H63" s="35"/>
       <c r="I63" s="38" t="s">
@@ -5401,17 +5409,17 @@
       <c r="K63" s="39"/>
     </row>
     <row r="64" spans="2:11" s="27" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="B64" s="93"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="89"/>
       <c r="D64" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="89"/>
       <c r="F64" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="35" t="s">
         <v>102</v>
-      </c>
-      <c r="G64" s="35" t="s">
-        <v>103</v>
       </c>
       <c r="H64" s="35"/>
       <c r="I64" s="38" t="s">
@@ -5421,16 +5429,16 @@
       <c r="K64" s="39"/>
     </row>
     <row r="65" spans="1:11" s="83" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B65" s="92">
+      <c r="B65" s="91">
         <v>30</v>
       </c>
-      <c r="C65" s="90" t="s">
-        <v>101</v>
+      <c r="C65" s="88" t="s">
+        <v>100</v>
       </c>
       <c r="D65" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="91"/>
+      <c r="E65" s="94"/>
       <c r="F65" s="78"/>
       <c r="G65" s="79"/>
       <c r="H65" s="79"/>
@@ -5441,7 +5449,7 @@
       <c r="K65" s="82"/>
     </row>
     <row r="66" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B66" s="93"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="89"/>
       <c r="D66" s="44" t="s">
         <v>18</v>
@@ -5457,16 +5465,16 @@
       <c r="K66" s="39"/>
     </row>
     <row r="67" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B67" s="92">
+      <c r="B67" s="91">
         <v>31</v>
       </c>
-      <c r="C67" s="90" t="s">
-        <v>104</v>
+      <c r="C67" s="88" t="s">
+        <v>103</v>
       </c>
       <c r="D67" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="91"/>
+      <c r="E67" s="94"/>
       <c r="F67" s="45"/>
       <c r="G67" s="35"/>
       <c r="H67" s="35"/>
@@ -5477,7 +5485,7 @@
       <c r="K67" s="39"/>
     </row>
     <row r="68" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B68" s="93"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="89"/>
       <c r="D68" s="44" t="s">
         <v>18</v>
@@ -5493,24 +5501,24 @@
       <c r="K68" s="39"/>
     </row>
     <row r="69" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B69" s="92">
+      <c r="B69" s="91">
         <v>32</v>
       </c>
-      <c r="C69" s="90" t="s">
-        <v>106</v>
+      <c r="C69" s="88" t="s">
+        <v>105</v>
       </c>
       <c r="D69" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E69" s="91"/>
+      <c r="E69" s="94"/>
       <c r="F69" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I69" s="38" t="s">
         <v>13</v>
@@ -5519,7 +5527,7 @@
       <c r="K69" s="39"/>
     </row>
     <row r="70" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B70" s="93"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="89"/>
       <c r="D70" s="44" t="s">
         <v>18</v>
@@ -5527,10 +5535,10 @@
       <c r="E70" s="89"/>
       <c r="F70" s="45"/>
       <c r="G70" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I70" s="38" t="s">
         <v>13</v>
@@ -5539,24 +5547,24 @@
       <c r="K70" s="39"/>
     </row>
     <row r="71" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B71" s="92">
+      <c r="B71" s="91">
         <v>33</v>
       </c>
       <c r="C71" s="64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D71" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E71" s="65"/>
       <c r="F71" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I71" s="38" t="s">
         <v>13</v>
@@ -5565,7 +5573,7 @@
       <c r="K71" s="39"/>
     </row>
     <row r="72" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B72" s="93"/>
+      <c r="B72" s="92"/>
       <c r="C72" s="75"/>
       <c r="D72" s="44" t="s">
         <v>18</v>
@@ -5573,10 +5581,10 @@
       <c r="E72" s="76"/>
       <c r="F72" s="45"/>
       <c r="G72" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I72" s="38" t="s">
         <v>13</v>
@@ -5585,19 +5593,19 @@
       <c r="K72" s="39"/>
     </row>
     <row r="73" spans="1:11" s="27" customFormat="1" ht="33" customHeight="1" thickBot="1">
-      <c r="B73" s="92">
+      <c r="B73" s="91">
         <v>34</v>
       </c>
-      <c r="C73" s="90" t="s">
-        <v>112</v>
+      <c r="C73" s="88" t="s">
+        <v>111</v>
       </c>
       <c r="D73" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="91"/>
+      <c r="E73" s="94"/>
       <c r="F73" s="45"/>
       <c r="G73" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H73" s="35" t="b">
         <v>1</v>
@@ -5610,7 +5618,7 @@
     </row>
     <row r="74" spans="1:11" ht="26.25" thickBot="1">
       <c r="A74" s="27"/>
-      <c r="B74" s="93"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="89"/>
       <c r="D74" s="44" t="s">
         <v>18</v>
@@ -5618,7 +5626,7 @@
       <c r="E74" s="89"/>
       <c r="F74" s="45"/>
       <c r="G74" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H74" s="35" t="b">
         <v>0</v>
@@ -5631,24 +5639,24 @@
     </row>
     <row r="75" spans="1:11" ht="26.25" thickBot="1">
       <c r="A75" s="27"/>
-      <c r="B75" s="92">
+      <c r="B75" s="91">
         <v>35</v>
       </c>
-      <c r="C75" s="90" t="s">
-        <v>113</v>
+      <c r="C75" s="88" t="s">
+        <v>112</v>
       </c>
       <c r="D75" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E75" s="91"/>
+      <c r="E75" s="94"/>
       <c r="F75" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G75" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G75" s="35" t="s">
-        <v>131</v>
-      </c>
       <c r="H75" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I75" s="38" t="s">
         <v>13</v>
@@ -5658,17 +5666,17 @@
     </row>
     <row r="76" spans="1:11" ht="26.25" thickBot="1">
       <c r="A76" s="27"/>
-      <c r="B76" s="93"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="89"/>
       <c r="D76" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E76" s="89"/>
       <c r="F76" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H76" s="35"/>
       <c r="I76" s="38" t="s">
@@ -5678,21 +5686,21 @@
       <c r="K76" s="39"/>
     </row>
     <row r="77" spans="1:11" ht="26.25" thickBot="1">
-      <c r="B77" s="92">
+      <c r="B77" s="91">
         <v>36</v>
       </c>
-      <c r="C77" s="90" t="s">
-        <v>114</v>
+      <c r="C77" s="88" t="s">
+        <v>113</v>
       </c>
       <c r="D77" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="91"/>
+      <c r="E77" s="94"/>
       <c r="F77" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H77" s="35"/>
       <c r="I77" s="38" t="s">
@@ -5702,17 +5710,17 @@
       <c r="K77" s="39"/>
     </row>
     <row r="78" spans="1:11" ht="26.25" thickBot="1">
-      <c r="B78" s="93"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="89"/>
       <c r="D78" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="89"/>
       <c r="F78" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H78" s="35"/>
       <c r="I78" s="38" t="s">
@@ -5722,21 +5730,21 @@
       <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B79" s="92">
+      <c r="B79" s="91">
         <v>37</v>
       </c>
-      <c r="C79" s="90" t="s">
-        <v>115</v>
+      <c r="C79" s="88" t="s">
+        <v>114</v>
       </c>
       <c r="D79" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E79" s="91"/>
+      <c r="E79" s="94"/>
       <c r="F79" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H79" s="35"/>
       <c r="I79" s="38" t="s">
@@ -5746,17 +5754,17 @@
       <c r="K79" s="39"/>
     </row>
     <row r="80" spans="1:11" ht="26.25" thickBot="1">
-      <c r="B80" s="93"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="89"/>
       <c r="D80" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E80" s="89"/>
       <c r="F80" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H80" s="35"/>
       <c r="I80" s="38" t="s">
@@ -5766,21 +5774,21 @@
       <c r="K80" s="39"/>
     </row>
     <row r="81" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B81" s="92">
+      <c r="B81" s="91">
         <v>38</v>
       </c>
-      <c r="C81" s="90" t="s">
-        <v>116</v>
+      <c r="C81" s="88" t="s">
+        <v>115</v>
       </c>
       <c r="D81" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="91"/>
+      <c r="E81" s="94"/>
       <c r="F81" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H81" s="35"/>
       <c r="I81" s="38" t="s">
@@ -5790,17 +5798,17 @@
       <c r="K81" s="39"/>
     </row>
     <row r="82" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B82" s="93"/>
+      <c r="B82" s="92"/>
       <c r="C82" s="89"/>
       <c r="D82" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E82" s="89"/>
       <c r="F82" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H82" s="35"/>
       <c r="I82" s="38" t="s">
@@ -5810,21 +5818,21 @@
       <c r="K82" s="39"/>
     </row>
     <row r="83" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B83" s="92">
+      <c r="B83" s="91">
         <v>39</v>
       </c>
-      <c r="C83" s="90" t="s">
-        <v>117</v>
+      <c r="C83" s="88" t="s">
+        <v>116</v>
       </c>
       <c r="D83" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E83" s="91"/>
+      <c r="E83" s="94"/>
       <c r="F83" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G83" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="35"/>
       <c r="I83" s="38" t="s">
@@ -5832,49 +5840,49 @@
       </c>
       <c r="J83" s="40"/>
       <c r="K83" s="39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B84" s="93"/>
+      <c r="B84" s="92"/>
       <c r="C84" s="89"/>
       <c r="D84" s="44" t="s">
         <v>18</v>
       </c>
       <c r="E84" s="89"/>
       <c r="F84" s="45" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G84" s="84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H84" s="35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I84" s="38" t="s">
         <v>13</v>
       </c>
       <c r="J84" s="40"/>
       <c r="K84" s="39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="85" spans="2:11" ht="36" customHeight="1" thickBot="1">
-      <c r="B85" s="92">
+      <c r="B85" s="91">
         <v>40</v>
       </c>
-      <c r="C85" s="90" t="s">
-        <v>345</v>
+      <c r="C85" s="88" t="s">
+        <v>344</v>
       </c>
       <c r="D85" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="91"/>
+      <c r="E85" s="94"/>
       <c r="F85" s="45" t="s">
+        <v>345</v>
+      </c>
+      <c r="G85" s="84" t="s">
         <v>346</v>
-      </c>
-      <c r="G85" s="84" t="s">
-        <v>347</v>
       </c>
       <c r="H85" s="35"/>
       <c r="I85" s="38" t="s">
@@ -5882,11 +5890,11 @@
       </c>
       <c r="J85" s="40"/>
       <c r="K85" s="39" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="2:11" ht="30" customHeight="1" thickBot="1">
-      <c r="B86" s="93"/>
+      <c r="B86" s="92"/>
       <c r="C86" s="89"/>
       <c r="D86" s="44" t="s">
         <v>18</v>
@@ -5902,18 +5910,18 @@
       <c r="K86" s="39"/>
     </row>
     <row r="87" spans="2:11" ht="39" customHeight="1" thickBot="1">
-      <c r="B87" s="92">
+      <c r="B87" s="91">
         <v>41</v>
       </c>
-      <c r="C87" s="90" t="s">
-        <v>249</v>
+      <c r="C87" s="88" t="s">
+        <v>248</v>
       </c>
       <c r="D87" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E87" s="91"/>
+      <c r="E87" s="94"/>
       <c r="F87" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
@@ -5922,11 +5930,11 @@
       </c>
       <c r="J87" s="40"/>
       <c r="K87" s="39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B88" s="93"/>
+      <c r="B88" s="92"/>
       <c r="C88" s="89"/>
       <c r="D88" s="44" t="s">
         <v>18</v>
@@ -5942,18 +5950,18 @@
       <c r="K88" s="39"/>
     </row>
     <row r="89" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B89" s="92">
+      <c r="B89" s="91">
         <v>42</v>
       </c>
-      <c r="C89" s="90" t="s">
-        <v>253</v>
+      <c r="C89" s="88" t="s">
+        <v>252</v>
       </c>
       <c r="D89" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="91"/>
+      <c r="E89" s="94"/>
       <c r="F89" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
@@ -5962,11 +5970,11 @@
       </c>
       <c r="J89" s="40"/>
       <c r="K89" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B90" s="93"/>
+      <c r="B90" s="92"/>
       <c r="C90" s="89"/>
       <c r="D90" s="44" t="s">
         <v>18</v>
@@ -5982,18 +5990,18 @@
       <c r="K90" s="39"/>
     </row>
     <row r="91" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B91" s="92">
+      <c r="B91" s="91">
         <v>43</v>
       </c>
-      <c r="C91" s="90" t="s">
-        <v>256</v>
+      <c r="C91" s="88" t="s">
+        <v>255</v>
       </c>
       <c r="D91" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="91"/>
+      <c r="E91" s="94"/>
       <c r="F91" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
@@ -6002,11 +6010,11 @@
       </c>
       <c r="J91" s="40"/>
       <c r="K91" s="39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B92" s="93"/>
+      <c r="B92" s="92"/>
       <c r="C92" s="89"/>
       <c r="D92" s="44" t="s">
         <v>18</v>
@@ -6022,18 +6030,18 @@
       <c r="K92" s="39"/>
     </row>
     <row r="93" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B93" s="92">
+      <c r="B93" s="91">
         <v>44</v>
       </c>
-      <c r="C93" s="90" t="s">
-        <v>259</v>
+      <c r="C93" s="88" t="s">
+        <v>258</v>
       </c>
       <c r="D93" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E93" s="91"/>
+      <c r="E93" s="94"/>
       <c r="F93" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
@@ -6042,11 +6050,11 @@
       </c>
       <c r="J93" s="40"/>
       <c r="K93" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B94" s="93"/>
+      <c r="B94" s="92"/>
       <c r="C94" s="89"/>
       <c r="D94" s="44" t="s">
         <v>18</v>
@@ -6062,16 +6070,16 @@
       <c r="K94" s="39"/>
     </row>
     <row r="95" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B95" s="92">
+      <c r="B95" s="91">
         <v>45</v>
       </c>
-      <c r="C95" s="90" t="s">
-        <v>262</v>
+      <c r="C95" s="88" t="s">
+        <v>261</v>
       </c>
       <c r="D95" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="91"/>
+      <c r="E95" s="94"/>
       <c r="F95" s="45"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
@@ -6082,7 +6090,7 @@
       <c r="K95" s="39"/>
     </row>
     <row r="96" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B96" s="93"/>
+      <c r="B96" s="92"/>
       <c r="C96" s="89"/>
       <c r="D96" s="44" t="s">
         <v>18</v>
@@ -6098,18 +6106,18 @@
       <c r="K96" s="39"/>
     </row>
     <row r="97" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B97" s="92">
+      <c r="B97" s="91">
         <v>46</v>
       </c>
-      <c r="C97" s="90" t="s">
-        <v>262</v>
+      <c r="C97" s="88" t="s">
+        <v>261</v>
       </c>
       <c r="D97" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="91"/>
+      <c r="E97" s="94"/>
       <c r="F97" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G97" s="35"/>
       <c r="H97" s="35"/>
@@ -6120,7 +6128,7 @@
       <c r="K97" s="39"/>
     </row>
     <row r="98" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B98" s="93"/>
+      <c r="B98" s="92"/>
       <c r="C98" s="89"/>
       <c r="D98" s="44" t="s">
         <v>18</v>
@@ -6136,18 +6144,18 @@
       <c r="K98" s="39"/>
     </row>
     <row r="99" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B99" s="92">
+      <c r="B99" s="91">
         <v>47</v>
       </c>
-      <c r="C99" s="90" t="s">
-        <v>263</v>
+      <c r="C99" s="88" t="s">
+        <v>262</v>
       </c>
       <c r="D99" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="91"/>
+      <c r="E99" s="94"/>
       <c r="F99" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G99" s="35"/>
       <c r="H99" s="35"/>
@@ -6158,7 +6166,7 @@
       <c r="K99" s="39"/>
     </row>
     <row r="100" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B100" s="93"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="89"/>
       <c r="D100" s="44" t="s">
         <v>18</v>
@@ -6174,16 +6182,16 @@
       <c r="K100" s="39"/>
     </row>
     <row r="101" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B101" s="92">
+      <c r="B101" s="91">
         <v>48</v>
       </c>
-      <c r="C101" s="90" t="s">
-        <v>266</v>
+      <c r="C101" s="88" t="s">
+        <v>265</v>
       </c>
       <c r="D101" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="91"/>
+      <c r="E101" s="94"/>
       <c r="F101" s="45"/>
       <c r="G101" s="35"/>
       <c r="H101" s="35"/>
@@ -6194,7 +6202,7 @@
       <c r="K101" s="39"/>
     </row>
     <row r="102" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B102" s="93"/>
+      <c r="B102" s="92"/>
       <c r="C102" s="89"/>
       <c r="D102" s="44" t="s">
         <v>18</v>
@@ -6210,16 +6218,16 @@
       <c r="K102" s="39"/>
     </row>
     <row r="103" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B103" s="92">
+      <c r="B103" s="91">
         <v>49</v>
       </c>
-      <c r="C103" s="90" t="s">
-        <v>267</v>
+      <c r="C103" s="88" t="s">
+        <v>266</v>
       </c>
       <c r="D103" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E103" s="91"/>
+      <c r="E103" s="94"/>
       <c r="F103" s="45"/>
       <c r="G103" s="35"/>
       <c r="H103" s="35"/>
@@ -6230,7 +6238,7 @@
       <c r="K103" s="39"/>
     </row>
     <row r="104" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B104" s="93"/>
+      <c r="B104" s="92"/>
       <c r="C104" s="89"/>
       <c r="D104" s="44" t="s">
         <v>18</v>
@@ -6246,16 +6254,16 @@
       <c r="K104" s="39"/>
     </row>
     <row r="105" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B105" s="92">
+      <c r="B105" s="91">
         <v>50</v>
       </c>
-      <c r="C105" s="90" t="s">
-        <v>268</v>
+      <c r="C105" s="88" t="s">
+        <v>267</v>
       </c>
       <c r="D105" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="91"/>
+      <c r="E105" s="94"/>
       <c r="F105" s="45"/>
       <c r="G105" s="35"/>
       <c r="H105" s="35"/>
@@ -6266,7 +6274,7 @@
       <c r="K105" s="39"/>
     </row>
     <row r="106" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B106" s="93"/>
+      <c r="B106" s="92"/>
       <c r="C106" s="89"/>
       <c r="D106" s="44" t="s">
         <v>18</v>
@@ -6282,16 +6290,16 @@
       <c r="K106" s="39"/>
     </row>
     <row r="107" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B107" s="92">
+      <c r="B107" s="91">
         <v>51</v>
       </c>
-      <c r="C107" s="90" t="s">
-        <v>269</v>
+      <c r="C107" s="88" t="s">
+        <v>268</v>
       </c>
       <c r="D107" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E107" s="91"/>
+      <c r="E107" s="94"/>
       <c r="F107" s="45"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
@@ -6302,7 +6310,7 @@
       <c r="K107" s="39"/>
     </row>
     <row r="108" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B108" s="93"/>
+      <c r="B108" s="92"/>
       <c r="C108" s="89"/>
       <c r="D108" s="44" t="s">
         <v>18</v>
@@ -6318,16 +6326,16 @@
       <c r="K108" s="39"/>
     </row>
     <row r="109" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B109" s="92">
+      <c r="B109" s="91">
         <v>52</v>
       </c>
-      <c r="C109" s="90" t="s">
-        <v>270</v>
+      <c r="C109" s="88" t="s">
+        <v>269</v>
       </c>
       <c r="D109" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="91"/>
+      <c r="E109" s="94"/>
       <c r="F109" s="45"/>
       <c r="G109" s="35"/>
       <c r="H109" s="35"/>
@@ -6338,7 +6346,7 @@
       <c r="K109" s="39"/>
     </row>
     <row r="110" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B110" s="93"/>
+      <c r="B110" s="92"/>
       <c r="C110" s="89"/>
       <c r="D110" s="44" t="s">
         <v>18</v>
@@ -6354,16 +6362,16 @@
       <c r="K110" s="39"/>
     </row>
     <row r="111" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B111" s="92">
+      <c r="B111" s="91">
         <v>43</v>
       </c>
-      <c r="C111" s="90" t="s">
-        <v>271</v>
+      <c r="C111" s="88" t="s">
+        <v>270</v>
       </c>
       <c r="D111" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="91"/>
+      <c r="E111" s="94"/>
       <c r="F111" s="45"/>
       <c r="G111" s="35"/>
       <c r="H111" s="35"/>
@@ -6374,7 +6382,7 @@
       <c r="K111" s="39"/>
     </row>
     <row r="112" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B112" s="93"/>
+      <c r="B112" s="92"/>
       <c r="C112" s="89"/>
       <c r="D112" s="44" t="s">
         <v>18</v>
@@ -6390,16 +6398,16 @@
       <c r="K112" s="39"/>
     </row>
     <row r="113" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B113" s="92">
+      <c r="B113" s="91">
         <v>44</v>
       </c>
-      <c r="C113" s="90" t="s">
-        <v>272</v>
+      <c r="C113" s="88" t="s">
+        <v>271</v>
       </c>
       <c r="D113" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E113" s="91"/>
+      <c r="E113" s="94"/>
       <c r="F113" s="45"/>
       <c r="G113" s="35"/>
       <c r="H113" s="35"/>
@@ -6410,7 +6418,7 @@
       <c r="K113" s="39"/>
     </row>
     <row r="114" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B114" s="93"/>
+      <c r="B114" s="92"/>
       <c r="C114" s="89"/>
       <c r="D114" s="44" t="s">
         <v>18</v>
@@ -6426,16 +6434,16 @@
       <c r="K114" s="39"/>
     </row>
     <row r="115" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B115" s="92">
+      <c r="B115" s="91">
         <v>45</v>
       </c>
-      <c r="C115" s="90" t="s">
-        <v>273</v>
+      <c r="C115" s="88" t="s">
+        <v>272</v>
       </c>
       <c r="D115" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E115" s="91"/>
+      <c r="E115" s="94"/>
       <c r="F115" s="45"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
@@ -6446,7 +6454,7 @@
       <c r="K115" s="39"/>
     </row>
     <row r="116" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B116" s="93"/>
+      <c r="B116" s="92"/>
       <c r="C116" s="89"/>
       <c r="D116" s="44" t="s">
         <v>18</v>
@@ -6462,16 +6470,16 @@
       <c r="K116" s="39"/>
     </row>
     <row r="117" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B117" s="92">
+      <c r="B117" s="91">
         <v>46</v>
       </c>
-      <c r="C117" s="90" t="s">
-        <v>274</v>
+      <c r="C117" s="88" t="s">
+        <v>273</v>
       </c>
       <c r="D117" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="91"/>
+      <c r="E117" s="94"/>
       <c r="F117" s="45"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
@@ -6482,7 +6490,7 @@
       <c r="K117" s="39"/>
     </row>
     <row r="118" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B118" s="93"/>
+      <c r="B118" s="92"/>
       <c r="C118" s="89"/>
       <c r="D118" s="44" t="s">
         <v>18</v>
@@ -6498,16 +6506,16 @@
       <c r="K118" s="39"/>
     </row>
     <row r="119" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B119" s="92">
+      <c r="B119" s="91">
         <v>47</v>
       </c>
-      <c r="C119" s="90" t="s">
-        <v>275</v>
+      <c r="C119" s="88" t="s">
+        <v>274</v>
       </c>
       <c r="D119" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E119" s="91"/>
+      <c r="E119" s="94"/>
       <c r="F119" s="45"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
@@ -6518,7 +6526,7 @@
       <c r="K119" s="39"/>
     </row>
     <row r="120" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B120" s="93"/>
+      <c r="B120" s="92"/>
       <c r="C120" s="89"/>
       <c r="D120" s="44" t="s">
         <v>18</v>
@@ -6534,16 +6542,16 @@
       <c r="K120" s="39"/>
     </row>
     <row r="121" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B121" s="92">
+      <c r="B121" s="91">
         <v>48</v>
       </c>
-      <c r="C121" s="90" t="s">
-        <v>276</v>
+      <c r="C121" s="88" t="s">
+        <v>275</v>
       </c>
       <c r="D121" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E121" s="91"/>
+      <c r="E121" s="94"/>
       <c r="F121" s="45"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
@@ -6554,7 +6562,7 @@
       <c r="K121" s="39"/>
     </row>
     <row r="122" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B122" s="93"/>
+      <c r="B122" s="92"/>
       <c r="C122" s="89"/>
       <c r="D122" s="44" t="s">
         <v>18</v>
@@ -6570,16 +6578,16 @@
       <c r="K122" s="39"/>
     </row>
     <row r="123" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B123" s="92">
+      <c r="B123" s="91">
         <v>49</v>
       </c>
-      <c r="C123" s="90" t="s">
-        <v>277</v>
+      <c r="C123" s="88" t="s">
+        <v>276</v>
       </c>
       <c r="D123" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E123" s="91"/>
+      <c r="E123" s="94"/>
       <c r="F123" s="45"/>
       <c r="G123" s="35"/>
       <c r="H123" s="35"/>
@@ -6590,7 +6598,7 @@
       <c r="K123" s="39"/>
     </row>
     <row r="124" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B124" s="93"/>
+      <c r="B124" s="92"/>
       <c r="C124" s="89"/>
       <c r="D124" s="44" t="s">
         <v>18</v>
@@ -6606,18 +6614,18 @@
       <c r="K124" s="39"/>
     </row>
     <row r="125" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B125" s="92">
+      <c r="B125" s="91">
         <v>50</v>
       </c>
-      <c r="C125" s="90" t="s">
-        <v>278</v>
+      <c r="C125" s="88" t="s">
+        <v>277</v>
       </c>
       <c r="D125" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E125" s="91"/>
+      <c r="E125" s="94"/>
       <c r="F125" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G125" s="35"/>
       <c r="H125" s="35"/>
@@ -6626,11 +6634,11 @@
       </c>
       <c r="J125" s="40"/>
       <c r="K125" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B126" s="93"/>
+      <c r="B126" s="92"/>
       <c r="C126" s="89"/>
       <c r="D126" s="44" t="s">
         <v>18</v>
@@ -6646,18 +6654,18 @@
       <c r="K126" s="39"/>
     </row>
     <row r="127" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B127" s="92">
+      <c r="B127" s="91">
         <v>51</v>
       </c>
-      <c r="C127" s="90" t="s">
-        <v>281</v>
+      <c r="C127" s="88" t="s">
+        <v>280</v>
       </c>
       <c r="D127" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="91"/>
+      <c r="E127" s="94"/>
       <c r="F127" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
@@ -6666,11 +6674,11 @@
       </c>
       <c r="J127" s="40"/>
       <c r="K127" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B128" s="93"/>
+      <c r="B128" s="92"/>
       <c r="C128" s="89"/>
       <c r="D128" s="44" t="s">
         <v>18</v>
@@ -6686,20 +6694,20 @@
       <c r="K128" s="39"/>
     </row>
     <row r="129" spans="2:11" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B129" s="92">
+      <c r="B129" s="91">
         <v>52</v>
       </c>
-      <c r="C129" s="90" t="s">
-        <v>283</v>
+      <c r="C129" s="88" t="s">
+        <v>282</v>
       </c>
       <c r="D129" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E129" s="91" t="s">
-        <v>252</v>
+      <c r="E129" s="94" t="s">
+        <v>251</v>
       </c>
       <c r="F129" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G129" s="35"/>
       <c r="H129" s="35"/>
@@ -6708,11 +6716,11 @@
       </c>
       <c r="J129" s="40"/>
       <c r="K129" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B130" s="93"/>
+      <c r="B130" s="92"/>
       <c r="C130" s="89"/>
       <c r="D130" s="44" t="s">
         <v>18</v>
@@ -6728,23 +6736,23 @@
       <c r="K130" s="39"/>
     </row>
     <row r="131" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B131" s="92">
+      <c r="B131" s="91">
         <v>53</v>
       </c>
-      <c r="C131" s="90" t="s">
-        <v>286</v>
+      <c r="C131" s="88" t="s">
+        <v>285</v>
       </c>
       <c r="D131" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="91" t="s">
-        <v>325</v>
+      <c r="E131" s="94" t="s">
+        <v>324</v>
       </c>
       <c r="F131" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G131" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H131" s="35"/>
       <c r="I131" s="38" t="s">
@@ -6752,11 +6760,11 @@
       </c>
       <c r="J131" s="40"/>
       <c r="K131" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="132" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B132" s="93"/>
+      <c r="B132" s="92"/>
       <c r="C132" s="89"/>
       <c r="D132" s="44" t="s">
         <v>18</v>
@@ -6772,20 +6780,20 @@
       <c r="K132" s="39"/>
     </row>
     <row r="133" spans="2:11" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B133" s="92">
+      <c r="B133" s="91">
         <v>54</v>
       </c>
-      <c r="C133" s="90" t="s">
-        <v>288</v>
+      <c r="C133" s="88" t="s">
+        <v>287</v>
       </c>
       <c r="D133" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E133" s="91" t="s">
-        <v>326</v>
+      <c r="E133" s="94" t="s">
+        <v>325</v>
       </c>
       <c r="F133" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
@@ -6794,11 +6802,11 @@
       </c>
       <c r="J133" s="40"/>
       <c r="K133" s="39" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B134" s="93"/>
+      <c r="B134" s="92"/>
       <c r="C134" s="89"/>
       <c r="D134" s="44" t="s">
         <v>18</v>
@@ -6814,23 +6822,23 @@
       <c r="K134" s="39"/>
     </row>
     <row r="135" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B135" s="92">
+      <c r="B135" s="91">
         <v>55</v>
       </c>
-      <c r="C135" s="90" t="s">
-        <v>290</v>
+      <c r="C135" s="88" t="s">
+        <v>289</v>
       </c>
       <c r="D135" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E135" s="91" t="s">
-        <v>326</v>
+      <c r="E135" s="94" t="s">
+        <v>325</v>
       </c>
       <c r="F135" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G135" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H135" s="35"/>
       <c r="I135" s="38" t="s">
@@ -6838,11 +6846,11 @@
       </c>
       <c r="J135" s="40"/>
       <c r="K135" s="39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="136" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B136" s="93"/>
+      <c r="B136" s="92"/>
       <c r="C136" s="89"/>
       <c r="D136" s="44" t="s">
         <v>18</v>
@@ -6858,20 +6866,20 @@
       <c r="K136" s="39"/>
     </row>
     <row r="137" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B137" s="92">
+      <c r="B137" s="91">
         <v>56</v>
       </c>
-      <c r="C137" s="90" t="s">
-        <v>293</v>
+      <c r="C137" s="88" t="s">
+        <v>292</v>
       </c>
       <c r="D137" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E137" s="91" t="s">
-        <v>326</v>
+      <c r="E137" s="94" t="s">
+        <v>325</v>
       </c>
       <c r="F137" s="45" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G137" s="35"/>
       <c r="H137" s="35"/>
@@ -6880,11 +6888,11 @@
       </c>
       <c r="J137" s="40"/>
       <c r="K137" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="138" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B138" s="93"/>
+      <c r="B138" s="92"/>
       <c r="C138" s="89"/>
       <c r="D138" s="44" t="s">
         <v>18</v>
@@ -6900,20 +6908,20 @@
       <c r="K138" s="39"/>
     </row>
     <row r="139" spans="2:11" ht="39" thickBot="1">
-      <c r="B139" s="92">
+      <c r="B139" s="91">
         <v>57</v>
       </c>
-      <c r="C139" s="90" t="s">
-        <v>296</v>
+      <c r="C139" s="88" t="s">
+        <v>295</v>
       </c>
       <c r="D139" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E139" s="91" t="s">
-        <v>326</v>
+      <c r="E139" s="94" t="s">
+        <v>325</v>
       </c>
       <c r="F139" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G139" s="35"/>
       <c r="H139" s="35"/>
@@ -6922,11 +6930,11 @@
       </c>
       <c r="J139" s="40"/>
       <c r="K139" s="39" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="140" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B140" s="93"/>
+      <c r="B140" s="92"/>
       <c r="C140" s="89"/>
       <c r="D140" s="44" t="s">
         <v>18</v>
@@ -6942,20 +6950,20 @@
       <c r="K140" s="39"/>
     </row>
     <row r="141" spans="2:11" ht="64.5" thickBot="1">
-      <c r="B141" s="92">
+      <c r="B141" s="91">
         <v>58</v>
       </c>
-      <c r="C141" s="90" t="s">
-        <v>299</v>
+      <c r="C141" s="88" t="s">
+        <v>298</v>
       </c>
       <c r="D141" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E141" s="91" t="s">
-        <v>326</v>
+      <c r="E141" s="94" t="s">
+        <v>325</v>
       </c>
       <c r="F141" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G141" s="35"/>
       <c r="H141" s="35"/>
@@ -6966,7 +6974,7 @@
       <c r="K141" s="39"/>
     </row>
     <row r="142" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B142" s="93"/>
+      <c r="B142" s="92"/>
       <c r="C142" s="89"/>
       <c r="D142" s="44" t="s">
         <v>18</v>
@@ -6982,33 +6990,33 @@
       <c r="K142" s="39"/>
     </row>
     <row r="143" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B143" s="92">
+      <c r="B143" s="91">
         <v>59</v>
       </c>
-      <c r="C143" s="90" t="s">
-        <v>300</v>
+      <c r="C143" s="88" t="s">
+        <v>299</v>
       </c>
       <c r="D143" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E143" s="91" t="s">
-        <v>326</v>
+      <c r="E143" s="94" t="s">
+        <v>325</v>
       </c>
       <c r="F143" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G143" s="35"/>
       <c r="H143" s="35"/>
       <c r="I143" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J143" s="40"/>
       <c r="K143" s="39" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B144" s="93"/>
+      <c r="B144" s="92"/>
       <c r="C144" s="89"/>
       <c r="D144" s="44" t="s">
         <v>18</v>
@@ -7024,21 +7032,21 @@
       <c r="K144" s="39"/>
     </row>
     <row r="145" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B145" s="92">
+      <c r="B145" s="91">
         <v>60</v>
       </c>
-      <c r="C145" s="90" t="s">
-        <v>302</v>
+      <c r="C145" s="88" t="s">
+        <v>301</v>
       </c>
       <c r="D145" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E145" s="91"/>
+      <c r="E145" s="94"/>
       <c r="F145" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G145" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H145" s="35"/>
       <c r="I145" s="38" t="s">
@@ -7046,11 +7054,11 @@
       </c>
       <c r="J145" s="40"/>
       <c r="K145" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="146" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B146" s="93"/>
+      <c r="B146" s="92"/>
       <c r="C146" s="89"/>
       <c r="D146" s="44" t="s">
         <v>18</v>
@@ -7066,23 +7074,23 @@
       <c r="K146" s="39"/>
     </row>
     <row r="147" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B147" s="92">
+      <c r="B147" s="91">
         <v>61</v>
       </c>
-      <c r="C147" s="90" t="s">
-        <v>304</v>
+      <c r="C147" s="88" t="s">
+        <v>303</v>
       </c>
       <c r="D147" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E147" s="91" t="s">
-        <v>331</v>
+      <c r="E147" s="94" t="s">
+        <v>330</v>
       </c>
       <c r="F147" s="45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G147" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H147" s="35"/>
       <c r="I147" s="38" t="s">
@@ -7090,11 +7098,11 @@
       </c>
       <c r="J147" s="40"/>
       <c r="K147" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B148" s="93"/>
+      <c r="B148" s="92"/>
       <c r="C148" s="89"/>
       <c r="D148" s="44" t="s">
         <v>18</v>
@@ -7110,20 +7118,20 @@
       <c r="K148" s="39"/>
     </row>
     <row r="149" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B149" s="92">
+      <c r="B149" s="91">
         <v>62</v>
       </c>
-      <c r="C149" s="90" t="s">
+      <c r="C149" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="D149" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="E149" s="94" t="s">
+        <v>330</v>
+      </c>
+      <c r="F149" s="45" t="s">
         <v>307</v>
-      </c>
-      <c r="D149" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="E149" s="91" t="s">
-        <v>331</v>
-      </c>
-      <c r="F149" s="45" t="s">
-        <v>308</v>
       </c>
       <c r="G149" s="35"/>
       <c r="H149" s="35"/>
@@ -7132,11 +7140,11 @@
       </c>
       <c r="J149" s="40"/>
       <c r="K149" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B150" s="93"/>
+      <c r="B150" s="92"/>
       <c r="C150" s="89"/>
       <c r="D150" s="44" t="s">
         <v>18</v>
@@ -7152,20 +7160,20 @@
       <c r="K150" s="39"/>
     </row>
     <row r="151" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B151" s="92">
+      <c r="B151" s="91">
         <v>63</v>
       </c>
-      <c r="C151" s="90" t="s">
-        <v>310</v>
+      <c r="C151" s="88" t="s">
+        <v>309</v>
       </c>
       <c r="D151" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E151" s="91" t="s">
-        <v>330</v>
+      <c r="E151" s="94" t="s">
+        <v>329</v>
       </c>
       <c r="F151" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G151" s="35"/>
       <c r="H151" s="35"/>
@@ -7174,11 +7182,11 @@
       </c>
       <c r="J151" s="40"/>
       <c r="K151" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B152" s="93"/>
+      <c r="B152" s="92"/>
       <c r="C152" s="89"/>
       <c r="D152" s="44" t="s">
         <v>18</v>
@@ -7194,20 +7202,20 @@
       <c r="K152" s="39"/>
     </row>
     <row r="153" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B153" s="92">
+      <c r="B153" s="91">
         <v>64</v>
       </c>
-      <c r="C153" s="90" t="s">
-        <v>364</v>
+      <c r="C153" s="88" t="s">
+        <v>363</v>
       </c>
       <c r="D153" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E153" s="91" t="s">
-        <v>329</v>
+      <c r="E153" s="94" t="s">
+        <v>328</v>
       </c>
       <c r="F153" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G153" s="35"/>
       <c r="H153" s="35"/>
@@ -7216,11 +7224,11 @@
       </c>
       <c r="J153" s="40"/>
       <c r="K153" s="39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="154" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B154" s="93"/>
+      <c r="B154" s="92"/>
       <c r="C154" s="89"/>
       <c r="D154" s="44" t="s">
         <v>18</v>
@@ -7236,17 +7244,17 @@
       <c r="K154" s="39"/>
     </row>
     <row r="155" spans="2:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B155" s="92">
+      <c r="B155" s="91">
         <v>65</v>
       </c>
-      <c r="C155" s="90" t="s">
-        <v>313</v>
+      <c r="C155" s="88" t="s">
+        <v>312</v>
       </c>
       <c r="D155" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="E155" s="91" t="s">
-        <v>328</v>
+      <c r="E155" s="94" t="s">
+        <v>327</v>
       </c>
       <c r="F155" s="45"/>
       <c r="G155" s="35"/>
@@ -7258,7 +7266,7 @@
       <c r="K155" s="39"/>
     </row>
     <row r="156" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B156" s="93"/>
+      <c r="B156" s="92"/>
       <c r="C156" s="89"/>
       <c r="D156" s="44" t="s">
         <v>18</v>
@@ -7274,18 +7282,18 @@
       <c r="K156" s="39"/>
     </row>
     <row r="157" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B157" s="92">
+      <c r="B157" s="91">
         <v>66</v>
       </c>
-      <c r="C157" s="90" t="s">
-        <v>332</v>
+      <c r="C157" s="88" t="s">
+        <v>331</v>
       </c>
       <c r="D157" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E157" s="41"/>
       <c r="F157" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G157" s="35"/>
       <c r="H157" s="35"/>
@@ -7296,7 +7304,7 @@
       <c r="K157" s="39"/>
     </row>
     <row r="158" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B158" s="93"/>
+      <c r="B158" s="92"/>
       <c r="C158" s="89"/>
       <c r="D158" s="44" t="s">
         <v>18</v>
@@ -7312,18 +7320,18 @@
       <c r="K158" s="39"/>
     </row>
     <row r="159" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B159" s="92">
+      <c r="B159" s="91">
         <v>67</v>
       </c>
-      <c r="C159" s="90" t="s">
-        <v>334</v>
+      <c r="C159" s="88" t="s">
+        <v>333</v>
       </c>
       <c r="D159" s="44" t="s">
         <v>19</v>
       </c>
       <c r="E159" s="41"/>
       <c r="F159" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G159" s="35"/>
       <c r="H159" s="35"/>
@@ -7334,7 +7342,7 @@
       <c r="K159" s="39"/>
     </row>
     <row r="160" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B160" s="93"/>
+      <c r="B160" s="92"/>
       <c r="C160" s="89"/>
       <c r="D160" s="44" t="s">
         <v>18</v>
@@ -7350,11 +7358,11 @@
       <c r="K160" s="39"/>
     </row>
     <row r="161" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B161" s="92">
+      <c r="B161" s="91">
         <v>68</v>
       </c>
-      <c r="C161" s="90" t="s">
-        <v>336</v>
+      <c r="C161" s="88" t="s">
+        <v>335</v>
       </c>
       <c r="D161" s="44" t="s">
         <v>19</v>
@@ -7370,7 +7378,7 @@
       <c r="K161" s="39"/>
     </row>
     <row r="162" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B162" s="93"/>
+      <c r="B162" s="92"/>
       <c r="C162" s="89"/>
       <c r="D162" s="44" t="s">
         <v>18</v>
@@ -7386,11 +7394,11 @@
       <c r="K162" s="39"/>
     </row>
     <row r="163" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B163" s="92">
+      <c r="B163" s="91">
         <v>69</v>
       </c>
-      <c r="C163" s="90" t="s">
-        <v>314</v>
+      <c r="C163" s="88" t="s">
+        <v>313</v>
       </c>
       <c r="D163" s="44" t="s">
         <v>19</v>
@@ -7406,7 +7414,7 @@
       <c r="K163" s="39"/>
     </row>
     <row r="164" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B164" s="93"/>
+      <c r="B164" s="92"/>
       <c r="C164" s="89"/>
       <c r="D164" s="44" t="s">
         <v>18</v>
@@ -7422,11 +7430,11 @@
       <c r="K164" s="39"/>
     </row>
     <row r="165" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B165" s="92">
+      <c r="B165" s="91">
         <v>70</v>
       </c>
-      <c r="C165" s="90" t="s">
-        <v>315</v>
+      <c r="C165" s="88" t="s">
+        <v>314</v>
       </c>
       <c r="D165" s="44" t="s">
         <v>19</v>
@@ -7442,7 +7450,7 @@
       <c r="K165" s="39"/>
     </row>
     <row r="166" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B166" s="93"/>
+      <c r="B166" s="92"/>
       <c r="C166" s="89"/>
       <c r="D166" s="44" t="s">
         <v>18</v>
@@ -7458,11 +7466,11 @@
       <c r="K166" s="39"/>
     </row>
     <row r="167" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B167" s="92">
+      <c r="B167" s="91">
         <v>71</v>
       </c>
-      <c r="C167" s="90" t="s">
-        <v>316</v>
+      <c r="C167" s="88" t="s">
+        <v>315</v>
       </c>
       <c r="D167" s="44" t="s">
         <v>19</v>
@@ -7478,7 +7486,7 @@
       <c r="K167" s="39"/>
     </row>
     <row r="168" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B168" s="93"/>
+      <c r="B168" s="92"/>
       <c r="C168" s="89"/>
       <c r="D168" s="44" t="s">
         <v>18</v>
@@ -7494,19 +7502,25 @@
       <c r="K168" s="39"/>
     </row>
     <row r="169" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B169" s="92"/>
-      <c r="C169" s="90"/>
+      <c r="B169" s="91">
+        <v>72</v>
+      </c>
+      <c r="C169" s="88" t="s">
+        <v>366</v>
+      </c>
       <c r="D169" s="44"/>
       <c r="E169" s="41"/>
       <c r="F169" s="45"/>
       <c r="G169" s="35"/>
       <c r="H169" s="35"/>
-      <c r="I169" s="38"/>
+      <c r="I169" s="38" t="s">
+        <v>367</v>
+      </c>
       <c r="J169" s="40"/>
       <c r="K169" s="39"/>
     </row>
     <row r="170" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B170" s="93"/>
+      <c r="B170" s="92"/>
       <c r="C170" s="89"/>
       <c r="D170" s="44"/>
       <c r="E170" s="41"/>
@@ -7518,8 +7532,8 @@
       <c r="K170" s="39"/>
     </row>
     <row r="171" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B171" s="92"/>
-      <c r="C171" s="90"/>
+      <c r="B171" s="91"/>
+      <c r="C171" s="88"/>
       <c r="D171" s="44"/>
       <c r="E171" s="41"/>
       <c r="F171" s="45"/>
@@ -7530,7 +7544,7 @@
       <c r="K171" s="39"/>
     </row>
     <row r="172" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B172" s="93"/>
+      <c r="B172" s="92"/>
       <c r="C172" s="89"/>
       <c r="D172" s="44"/>
       <c r="E172" s="41"/>
@@ -7542,8 +7556,8 @@
       <c r="K172" s="39"/>
     </row>
     <row r="173" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B173" s="92"/>
-      <c r="C173" s="90"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="88"/>
       <c r="D173" s="44"/>
       <c r="E173" s="41"/>
       <c r="F173" s="45"/>
@@ -7554,7 +7568,7 @@
       <c r="K173" s="39"/>
     </row>
     <row r="174" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B174" s="93"/>
+      <c r="B174" s="92"/>
       <c r="C174" s="89"/>
       <c r="D174" s="44"/>
       <c r="E174" s="41"/>
@@ -7566,8 +7580,8 @@
       <c r="K174" s="39"/>
     </row>
     <row r="175" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B175" s="92"/>
-      <c r="C175" s="90"/>
+      <c r="B175" s="91"/>
+      <c r="C175" s="88"/>
       <c r="D175" s="44"/>
       <c r="E175" s="41"/>
       <c r="F175" s="45"/>
@@ -7578,7 +7592,7 @@
       <c r="K175" s="39"/>
     </row>
     <row r="176" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B176" s="93"/>
+      <c r="B176" s="92"/>
       <c r="C176" s="89"/>
       <c r="D176" s="44"/>
       <c r="E176" s="41"/>
@@ -7590,8 +7604,8 @@
       <c r="K176" s="39"/>
     </row>
     <row r="177" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B177" s="92"/>
-      <c r="C177" s="90"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="88"/>
       <c r="D177" s="44"/>
       <c r="E177" s="41"/>
       <c r="F177" s="45"/>
@@ -7602,7 +7616,7 @@
       <c r="K177" s="39"/>
     </row>
     <row r="178" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B178" s="93"/>
+      <c r="B178" s="92"/>
       <c r="C178" s="89"/>
       <c r="D178" s="44"/>
       <c r="E178" s="41"/>
@@ -7614,8 +7628,8 @@
       <c r="K178" s="39"/>
     </row>
     <row r="179" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B179" s="92"/>
-      <c r="C179" s="90"/>
+      <c r="B179" s="91"/>
+      <c r="C179" s="88"/>
       <c r="D179" s="44"/>
       <c r="E179" s="41"/>
       <c r="F179" s="45"/>
@@ -7626,7 +7640,7 @@
       <c r="K179" s="39"/>
     </row>
     <row r="180" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B180" s="93"/>
+      <c r="B180" s="92"/>
       <c r="C180" s="89"/>
       <c r="D180" s="44"/>
       <c r="E180" s="41"/>
@@ -7638,8 +7652,8 @@
       <c r="K180" s="39"/>
     </row>
     <row r="181" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B181" s="92"/>
-      <c r="C181" s="90"/>
+      <c r="B181" s="91"/>
+      <c r="C181" s="88"/>
       <c r="D181" s="44"/>
       <c r="E181" s="41"/>
       <c r="F181" s="45"/>
@@ -7650,7 +7664,7 @@
       <c r="K181" s="39"/>
     </row>
     <row r="182" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B182" s="93"/>
+      <c r="B182" s="92"/>
       <c r="C182" s="89"/>
       <c r="D182" s="44"/>
       <c r="E182" s="41"/>
@@ -7662,8 +7676,8 @@
       <c r="K182" s="39"/>
     </row>
     <row r="183" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B183" s="92"/>
-      <c r="C183" s="90"/>
+      <c r="B183" s="91"/>
+      <c r="C183" s="88"/>
       <c r="D183" s="44"/>
       <c r="E183" s="41"/>
       <c r="F183" s="45"/>
@@ -7674,7 +7688,7 @@
       <c r="K183" s="39"/>
     </row>
     <row r="184" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B184" s="93"/>
+      <c r="B184" s="92"/>
       <c r="C184" s="89"/>
       <c r="D184" s="44"/>
       <c r="E184" s="41"/>
@@ -7686,8 +7700,8 @@
       <c r="K184" s="39"/>
     </row>
     <row r="185" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B185" s="92"/>
-      <c r="C185" s="90"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="88"/>
       <c r="D185" s="44"/>
       <c r="E185" s="41"/>
       <c r="F185" s="45"/>
@@ -7698,7 +7712,7 @@
       <c r="K185" s="39"/>
     </row>
     <row r="186" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B186" s="93"/>
+      <c r="B186" s="92"/>
       <c r="C186" s="89"/>
       <c r="D186" s="44"/>
       <c r="E186" s="41"/>
@@ -7710,8 +7724,8 @@
       <c r="K186" s="39"/>
     </row>
     <row r="187" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B187" s="92"/>
-      <c r="C187" s="90"/>
+      <c r="B187" s="91"/>
+      <c r="C187" s="88"/>
       <c r="D187" s="44"/>
       <c r="E187" s="41"/>
       <c r="F187" s="45"/>
@@ -7722,7 +7736,7 @@
       <c r="K187" s="39"/>
     </row>
     <row r="188" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B188" s="93"/>
+      <c r="B188" s="92"/>
       <c r="C188" s="89"/>
       <c r="D188" s="44"/>
       <c r="E188" s="41"/>
@@ -7734,8 +7748,8 @@
       <c r="K188" s="39"/>
     </row>
     <row r="189" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B189" s="92"/>
-      <c r="C189" s="90"/>
+      <c r="B189" s="91"/>
+      <c r="C189" s="88"/>
       <c r="D189" s="44"/>
       <c r="E189" s="41"/>
       <c r="F189" s="45"/>
@@ -7746,7 +7760,7 @@
       <c r="K189" s="39"/>
     </row>
     <row r="190" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B190" s="93"/>
+      <c r="B190" s="92"/>
       <c r="C190" s="89"/>
       <c r="D190" s="44"/>
       <c r="E190" s="41"/>
@@ -7758,8 +7772,8 @@
       <c r="K190" s="39"/>
     </row>
     <row r="191" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B191" s="92"/>
-      <c r="C191" s="90"/>
+      <c r="B191" s="91"/>
+      <c r="C191" s="88"/>
       <c r="D191" s="44"/>
       <c r="E191" s="41"/>
       <c r="F191" s="45"/>
@@ -7770,7 +7784,7 @@
       <c r="K191" s="39"/>
     </row>
     <row r="192" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B192" s="93"/>
+      <c r="B192" s="92"/>
       <c r="C192" s="89"/>
       <c r="D192" s="44"/>
       <c r="E192" s="41"/>
@@ -7782,8 +7796,8 @@
       <c r="K192" s="39"/>
     </row>
     <row r="193" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B193" s="92"/>
-      <c r="C193" s="90"/>
+      <c r="B193" s="91"/>
+      <c r="C193" s="88"/>
       <c r="D193" s="44"/>
       <c r="E193" s="41"/>
       <c r="F193" s="45"/>
@@ -7794,7 +7808,7 @@
       <c r="K193" s="39"/>
     </row>
     <row r="194" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B194" s="93"/>
+      <c r="B194" s="92"/>
       <c r="C194" s="89"/>
       <c r="D194" s="44"/>
       <c r="E194" s="41"/>
@@ -7806,8 +7820,8 @@
       <c r="K194" s="39"/>
     </row>
     <row r="195" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B195" s="92"/>
-      <c r="C195" s="90"/>
+      <c r="B195" s="91"/>
+      <c r="C195" s="88"/>
       <c r="D195" s="44"/>
       <c r="E195" s="41"/>
       <c r="F195" s="45"/>
@@ -7818,7 +7832,7 @@
       <c r="K195" s="39"/>
     </row>
     <row r="196" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B196" s="93"/>
+      <c r="B196" s="92"/>
       <c r="C196" s="89"/>
       <c r="D196" s="44"/>
       <c r="E196" s="41"/>
@@ -7830,8 +7844,8 @@
       <c r="K196" s="39"/>
     </row>
     <row r="197" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B197" s="92"/>
-      <c r="C197" s="90"/>
+      <c r="B197" s="91"/>
+      <c r="C197" s="88"/>
       <c r="D197" s="44"/>
       <c r="E197" s="41"/>
       <c r="F197" s="45"/>
@@ -7842,7 +7856,7 @@
       <c r="K197" s="39"/>
     </row>
     <row r="198" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B198" s="93"/>
+      <c r="B198" s="92"/>
       <c r="C198" s="89"/>
       <c r="D198" s="44"/>
       <c r="E198" s="41"/>
@@ -7854,8 +7868,8 @@
       <c r="K198" s="39"/>
     </row>
     <row r="199" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B199" s="92"/>
-      <c r="C199" s="90"/>
+      <c r="B199" s="91"/>
+      <c r="C199" s="88"/>
       <c r="D199" s="44"/>
       <c r="E199" s="41"/>
       <c r="F199" s="45"/>
@@ -7866,7 +7880,7 @@
       <c r="K199" s="39"/>
     </row>
     <row r="200" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B200" s="93"/>
+      <c r="B200" s="92"/>
       <c r="C200" s="89"/>
       <c r="D200" s="44"/>
       <c r="E200" s="41"/>
@@ -7878,8 +7892,8 @@
       <c r="K200" s="39"/>
     </row>
     <row r="201" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B201" s="92"/>
-      <c r="C201" s="90"/>
+      <c r="B201" s="91"/>
+      <c r="C201" s="88"/>
       <c r="D201" s="44"/>
       <c r="E201" s="41"/>
       <c r="F201" s="45"/>
@@ -7890,7 +7904,7 @@
       <c r="K201" s="39"/>
     </row>
     <row r="202" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B202" s="93"/>
+      <c r="B202" s="92"/>
       <c r="C202" s="89"/>
       <c r="D202" s="44"/>
       <c r="E202" s="41"/>
@@ -7902,8 +7916,8 @@
       <c r="K202" s="39"/>
     </row>
     <row r="203" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B203" s="92"/>
-      <c r="C203" s="90"/>
+      <c r="B203" s="91"/>
+      <c r="C203" s="88"/>
       <c r="D203" s="44"/>
       <c r="E203" s="41"/>
       <c r="F203" s="45"/>
@@ -7914,7 +7928,7 @@
       <c r="K203" s="39"/>
     </row>
     <row r="204" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B204" s="93"/>
+      <c r="B204" s="92"/>
       <c r="C204" s="89"/>
       <c r="D204" s="44"/>
       <c r="E204" s="41"/>
@@ -7926,8 +7940,8 @@
       <c r="K204" s="39"/>
     </row>
     <row r="205" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B205" s="92"/>
-      <c r="C205" s="90"/>
+      <c r="B205" s="91"/>
+      <c r="C205" s="88"/>
       <c r="D205" s="44"/>
       <c r="E205" s="41"/>
       <c r="F205" s="45"/>
@@ -7938,7 +7952,7 @@
       <c r="K205" s="39"/>
     </row>
     <row r="206" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B206" s="93"/>
+      <c r="B206" s="92"/>
       <c r="C206" s="89"/>
       <c r="D206" s="44"/>
       <c r="E206" s="41"/>
@@ -7950,8 +7964,8 @@
       <c r="K206" s="39"/>
     </row>
     <row r="207" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B207" s="92"/>
-      <c r="C207" s="90"/>
+      <c r="B207" s="91"/>
+      <c r="C207" s="88"/>
       <c r="D207" s="44"/>
       <c r="E207" s="41"/>
       <c r="F207" s="45"/>
@@ -7962,7 +7976,7 @@
       <c r="K207" s="39"/>
     </row>
     <row r="208" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B208" s="93"/>
+      <c r="B208" s="92"/>
       <c r="C208" s="89"/>
       <c r="D208" s="44"/>
       <c r="E208" s="41"/>
@@ -7974,8 +7988,8 @@
       <c r="K208" s="39"/>
     </row>
     <row r="209" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B209" s="92"/>
-      <c r="C209" s="90"/>
+      <c r="B209" s="91"/>
+      <c r="C209" s="88"/>
       <c r="D209" s="44"/>
       <c r="E209" s="41"/>
       <c r="F209" s="45"/>
@@ -7986,7 +8000,7 @@
       <c r="K209" s="39"/>
     </row>
     <row r="210" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B210" s="93"/>
+      <c r="B210" s="92"/>
       <c r="C210" s="89"/>
       <c r="D210" s="44"/>
       <c r="E210" s="41"/>
@@ -7998,8 +8012,8 @@
       <c r="K210" s="39"/>
     </row>
     <row r="211" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B211" s="92"/>
-      <c r="C211" s="90"/>
+      <c r="B211" s="91"/>
+      <c r="C211" s="88"/>
       <c r="D211" s="44"/>
       <c r="E211" s="41"/>
       <c r="F211" s="45"/>
@@ -8010,7 +8024,7 @@
       <c r="K211" s="39"/>
     </row>
     <row r="212" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B212" s="93"/>
+      <c r="B212" s="92"/>
       <c r="C212" s="89"/>
       <c r="D212" s="44"/>
       <c r="E212" s="41"/>
@@ -8022,8 +8036,8 @@
       <c r="K212" s="39"/>
     </row>
     <row r="213" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B213" s="92"/>
-      <c r="C213" s="90"/>
+      <c r="B213" s="91"/>
+      <c r="C213" s="88"/>
       <c r="D213" s="44"/>
       <c r="E213" s="41"/>
       <c r="F213" s="45"/>
@@ -8034,7 +8048,7 @@
       <c r="K213" s="39"/>
     </row>
     <row r="214" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B214" s="93"/>
+      <c r="B214" s="92"/>
       <c r="C214" s="89"/>
       <c r="D214" s="44"/>
       <c r="E214" s="41"/>
@@ -8046,8 +8060,8 @@
       <c r="K214" s="39"/>
     </row>
     <row r="215" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B215" s="92"/>
-      <c r="C215" s="90"/>
+      <c r="B215" s="91"/>
+      <c r="C215" s="88"/>
       <c r="D215" s="44"/>
       <c r="E215" s="41"/>
       <c r="F215" s="45"/>
@@ -8058,7 +8072,7 @@
       <c r="K215" s="39"/>
     </row>
     <row r="216" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B216" s="93"/>
+      <c r="B216" s="92"/>
       <c r="C216" s="89"/>
       <c r="D216" s="44"/>
       <c r="E216" s="41"/>
@@ -8070,8 +8084,8 @@
       <c r="K216" s="39"/>
     </row>
     <row r="217" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B217" s="92"/>
-      <c r="C217" s="90"/>
+      <c r="B217" s="91"/>
+      <c r="C217" s="88"/>
       <c r="D217" s="44"/>
       <c r="E217" s="41"/>
       <c r="F217" s="45"/>
@@ -8082,7 +8096,7 @@
       <c r="K217" s="39"/>
     </row>
     <row r="218" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B218" s="93"/>
+      <c r="B218" s="92"/>
       <c r="C218" s="89"/>
       <c r="D218" s="44"/>
       <c r="E218" s="41"/>
@@ -8094,8 +8108,8 @@
       <c r="K218" s="39"/>
     </row>
     <row r="219" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B219" s="92"/>
-      <c r="C219" s="90"/>
+      <c r="B219" s="91"/>
+      <c r="C219" s="88"/>
       <c r="D219" s="44"/>
       <c r="E219" s="41"/>
       <c r="F219" s="45"/>
@@ -8106,7 +8120,7 @@
       <c r="K219" s="39"/>
     </row>
     <row r="220" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B220" s="93"/>
+      <c r="B220" s="92"/>
       <c r="C220" s="89"/>
       <c r="D220" s="44"/>
       <c r="E220" s="41"/>
@@ -8118,8 +8132,8 @@
       <c r="K220" s="39"/>
     </row>
     <row r="221" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B221" s="92"/>
-      <c r="C221" s="90"/>
+      <c r="B221" s="91"/>
+      <c r="C221" s="88"/>
       <c r="D221" s="44"/>
       <c r="E221" s="41"/>
       <c r="F221" s="45"/>
@@ -8130,7 +8144,7 @@
       <c r="K221" s="39"/>
     </row>
     <row r="222" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B222" s="93"/>
+      <c r="B222" s="92"/>
       <c r="C222" s="89"/>
       <c r="D222" s="44"/>
       <c r="E222" s="41"/>
@@ -8142,8 +8156,8 @@
       <c r="K222" s="39"/>
     </row>
     <row r="223" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B223" s="92"/>
-      <c r="C223" s="90"/>
+      <c r="B223" s="91"/>
+      <c r="C223" s="88"/>
       <c r="D223" s="44"/>
       <c r="E223" s="41"/>
       <c r="F223" s="45"/>
@@ -8154,7 +8168,7 @@
       <c r="K223" s="39"/>
     </row>
     <row r="224" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B224" s="93"/>
+      <c r="B224" s="92"/>
       <c r="C224" s="89"/>
       <c r="D224" s="44"/>
       <c r="E224" s="41"/>
@@ -8166,8 +8180,8 @@
       <c r="K224" s="39"/>
     </row>
     <row r="225" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B225" s="92"/>
-      <c r="C225" s="90"/>
+      <c r="B225" s="91"/>
+      <c r="C225" s="88"/>
       <c r="D225" s="44"/>
       <c r="E225" s="41"/>
       <c r="F225" s="45"/>
@@ -8178,7 +8192,7 @@
       <c r="K225" s="39"/>
     </row>
     <row r="226" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B226" s="93"/>
+      <c r="B226" s="92"/>
       <c r="C226" s="89"/>
       <c r="D226" s="44"/>
       <c r="E226" s="41"/>
@@ -8190,8 +8204,8 @@
       <c r="K226" s="39"/>
     </row>
     <row r="227" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B227" s="92"/>
-      <c r="C227" s="90"/>
+      <c r="B227" s="91"/>
+      <c r="C227" s="88"/>
       <c r="D227" s="44"/>
       <c r="E227" s="41"/>
       <c r="F227" s="45"/>
@@ -8202,7 +8216,7 @@
       <c r="K227" s="39"/>
     </row>
     <row r="228" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B228" s="93"/>
+      <c r="B228" s="92"/>
       <c r="C228" s="89"/>
       <c r="D228" s="44"/>
       <c r="E228" s="41"/>
@@ -8214,8 +8228,8 @@
       <c r="K228" s="39"/>
     </row>
     <row r="229" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B229" s="92"/>
-      <c r="C229" s="90"/>
+      <c r="B229" s="91"/>
+      <c r="C229" s="88"/>
       <c r="D229" s="44"/>
       <c r="E229" s="41"/>
       <c r="F229" s="45"/>
@@ -8226,7 +8240,7 @@
       <c r="K229" s="39"/>
     </row>
     <row r="230" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B230" s="93"/>
+      <c r="B230" s="92"/>
       <c r="C230" s="89"/>
       <c r="D230" s="44"/>
       <c r="E230" s="41"/>
@@ -8238,8 +8252,8 @@
       <c r="K230" s="39"/>
     </row>
     <row r="231" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B231" s="92"/>
-      <c r="C231" s="90"/>
+      <c r="B231" s="91"/>
+      <c r="C231" s="88"/>
       <c r="D231" s="44"/>
       <c r="E231" s="41"/>
       <c r="F231" s="45"/>
@@ -8250,7 +8264,7 @@
       <c r="K231" s="39"/>
     </row>
     <row r="232" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B232" s="93"/>
+      <c r="B232" s="92"/>
       <c r="C232" s="89"/>
       <c r="D232" s="44"/>
       <c r="E232" s="41"/>
@@ -8262,8 +8276,8 @@
       <c r="K232" s="39"/>
     </row>
     <row r="233" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B233" s="92"/>
-      <c r="C233" s="90"/>
+      <c r="B233" s="91"/>
+      <c r="C233" s="88"/>
       <c r="D233" s="44"/>
       <c r="E233" s="41"/>
       <c r="F233" s="45"/>
@@ -8274,7 +8288,7 @@
       <c r="K233" s="39"/>
     </row>
     <row r="234" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B234" s="93"/>
+      <c r="B234" s="92"/>
       <c r="C234" s="89"/>
       <c r="D234" s="44"/>
       <c r="E234" s="41"/>
@@ -8286,8 +8300,8 @@
       <c r="K234" s="39"/>
     </row>
     <row r="235" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B235" s="92"/>
-      <c r="C235" s="90"/>
+      <c r="B235" s="91"/>
+      <c r="C235" s="88"/>
       <c r="D235" s="44"/>
       <c r="E235" s="41"/>
       <c r="F235" s="45"/>
@@ -8298,7 +8312,7 @@
       <c r="K235" s="39"/>
     </row>
     <row r="236" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B236" s="93"/>
+      <c r="B236" s="92"/>
       <c r="C236" s="89"/>
       <c r="D236" s="44"/>
       <c r="E236" s="41"/>
@@ -8310,8 +8324,8 @@
       <c r="K236" s="39"/>
     </row>
     <row r="237" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B237" s="92"/>
-      <c r="C237" s="90"/>
+      <c r="B237" s="91"/>
+      <c r="C237" s="88"/>
       <c r="D237" s="44"/>
       <c r="E237" s="41"/>
       <c r="F237" s="45"/>
@@ -8322,7 +8336,7 @@
       <c r="K237" s="39"/>
     </row>
     <row r="238" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B238" s="93"/>
+      <c r="B238" s="92"/>
       <c r="C238" s="89"/>
       <c r="D238" s="44"/>
       <c r="E238" s="41"/>
@@ -8334,8 +8348,8 @@
       <c r="K238" s="39"/>
     </row>
     <row r="239" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B239" s="92"/>
-      <c r="C239" s="90"/>
+      <c r="B239" s="91"/>
+      <c r="C239" s="88"/>
       <c r="D239" s="44"/>
       <c r="E239" s="41"/>
       <c r="F239" s="45"/>
@@ -8346,7 +8360,7 @@
       <c r="K239" s="39"/>
     </row>
     <row r="240" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B240" s="93"/>
+      <c r="B240" s="92"/>
       <c r="C240" s="89"/>
       <c r="D240" s="44"/>
       <c r="E240" s="41"/>
@@ -8358,8 +8372,8 @@
       <c r="K240" s="39"/>
     </row>
     <row r="241" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B241" s="92"/>
-      <c r="C241" s="90"/>
+      <c r="B241" s="91"/>
+      <c r="C241" s="88"/>
       <c r="D241" s="44"/>
       <c r="E241" s="41"/>
       <c r="F241" s="45"/>
@@ -8370,7 +8384,7 @@
       <c r="K241" s="39"/>
     </row>
     <row r="242" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B242" s="93"/>
+      <c r="B242" s="92"/>
       <c r="C242" s="89"/>
       <c r="D242" s="44"/>
       <c r="E242" s="41"/>
@@ -8382,8 +8396,8 @@
       <c r="K242" s="39"/>
     </row>
     <row r="243" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B243" s="92"/>
-      <c r="C243" s="90"/>
+      <c r="B243" s="91"/>
+      <c r="C243" s="88"/>
       <c r="D243" s="44"/>
       <c r="E243" s="41"/>
       <c r="F243" s="45"/>
@@ -8394,7 +8408,7 @@
       <c r="K243" s="39"/>
     </row>
     <row r="244" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B244" s="93"/>
+      <c r="B244" s="92"/>
       <c r="C244" s="89"/>
       <c r="D244" s="44"/>
       <c r="E244" s="41"/>
@@ -8406,8 +8420,8 @@
       <c r="K244" s="39"/>
     </row>
     <row r="245" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B245" s="92"/>
-      <c r="C245" s="90"/>
+      <c r="B245" s="91"/>
+      <c r="C245" s="88"/>
       <c r="D245" s="44"/>
       <c r="E245" s="41"/>
       <c r="F245" s="45"/>
@@ -8418,7 +8432,7 @@
       <c r="K245" s="39"/>
     </row>
     <row r="246" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B246" s="93"/>
+      <c r="B246" s="92"/>
       <c r="C246" s="89"/>
       <c r="D246" s="44"/>
       <c r="E246" s="41"/>
@@ -8430,8 +8444,8 @@
       <c r="K246" s="39"/>
     </row>
     <row r="247" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B247" s="92"/>
-      <c r="C247" s="90"/>
+      <c r="B247" s="91"/>
+      <c r="C247" s="88"/>
       <c r="D247" s="44"/>
       <c r="E247" s="41"/>
       <c r="F247" s="45"/>
@@ -8442,7 +8456,7 @@
       <c r="K247" s="39"/>
     </row>
     <row r="248" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B248" s="93"/>
+      <c r="B248" s="92"/>
       <c r="C248" s="89"/>
       <c r="D248" s="44"/>
       <c r="E248" s="41"/>
@@ -8454,8 +8468,8 @@
       <c r="K248" s="39"/>
     </row>
     <row r="249" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B249" s="92"/>
-      <c r="C249" s="90"/>
+      <c r="B249" s="91"/>
+      <c r="C249" s="88"/>
       <c r="D249" s="44"/>
       <c r="E249" s="41"/>
       <c r="F249" s="45"/>
@@ -8466,7 +8480,7 @@
       <c r="K249" s="39"/>
     </row>
     <row r="250" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B250" s="93"/>
+      <c r="B250" s="92"/>
       <c r="C250" s="89"/>
       <c r="D250" s="44"/>
       <c r="E250" s="41"/>
@@ -8478,8 +8492,8 @@
       <c r="K250" s="39"/>
     </row>
     <row r="251" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B251" s="92"/>
-      <c r="C251" s="90"/>
+      <c r="B251" s="91"/>
+      <c r="C251" s="88"/>
       <c r="D251" s="44"/>
       <c r="E251" s="41"/>
       <c r="F251" s="45"/>
@@ -8490,7 +8504,7 @@
       <c r="K251" s="39"/>
     </row>
     <row r="252" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B252" s="93"/>
+      <c r="B252" s="92"/>
       <c r="C252" s="89"/>
       <c r="D252" s="44"/>
       <c r="E252" s="41"/>
@@ -8502,8 +8516,8 @@
       <c r="K252" s="39"/>
     </row>
     <row r="253" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B253" s="92"/>
-      <c r="C253" s="90"/>
+      <c r="B253" s="91"/>
+      <c r="C253" s="88"/>
       <c r="D253" s="44"/>
       <c r="E253" s="41"/>
       <c r="F253" s="45"/>
@@ -8514,7 +8528,7 @@
       <c r="K253" s="39"/>
     </row>
     <row r="254" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B254" s="93"/>
+      <c r="B254" s="92"/>
       <c r="C254" s="89"/>
       <c r="D254" s="44"/>
       <c r="E254" s="41"/>
@@ -8526,8 +8540,8 @@
       <c r="K254" s="39"/>
     </row>
     <row r="255" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B255" s="92"/>
-      <c r="C255" s="90"/>
+      <c r="B255" s="91"/>
+      <c r="C255" s="88"/>
       <c r="D255" s="44"/>
       <c r="E255" s="41"/>
       <c r="F255" s="45"/>
@@ -8538,7 +8552,7 @@
       <c r="K255" s="39"/>
     </row>
     <row r="256" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B256" s="93"/>
+      <c r="B256" s="92"/>
       <c r="C256" s="89"/>
       <c r="D256" s="44"/>
       <c r="E256" s="41"/>
@@ -8550,8 +8564,8 @@
       <c r="K256" s="39"/>
     </row>
     <row r="257" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B257" s="92"/>
-      <c r="C257" s="90"/>
+      <c r="B257" s="91"/>
+      <c r="C257" s="88"/>
       <c r="D257" s="44"/>
       <c r="E257" s="41"/>
       <c r="F257" s="45"/>
@@ -8562,7 +8576,7 @@
       <c r="K257" s="39"/>
     </row>
     <row r="258" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B258" s="93"/>
+      <c r="B258" s="92"/>
       <c r="C258" s="89"/>
       <c r="D258" s="44"/>
       <c r="E258" s="41"/>
@@ -8574,8 +8588,8 @@
       <c r="K258" s="39"/>
     </row>
     <row r="259" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B259" s="92"/>
-      <c r="C259" s="90"/>
+      <c r="B259" s="91"/>
+      <c r="C259" s="88"/>
       <c r="D259" s="44"/>
       <c r="E259" s="41"/>
       <c r="F259" s="45"/>
@@ -8586,7 +8600,7 @@
       <c r="K259" s="39"/>
     </row>
     <row r="260" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B260" s="93"/>
+      <c r="B260" s="92"/>
       <c r="C260" s="89"/>
       <c r="D260" s="44"/>
       <c r="E260" s="41"/>
@@ -8598,8 +8612,8 @@
       <c r="K260" s="39"/>
     </row>
     <row r="261" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B261" s="92"/>
-      <c r="C261" s="90"/>
+      <c r="B261" s="91"/>
+      <c r="C261" s="88"/>
       <c r="D261" s="44"/>
       <c r="E261" s="41"/>
       <c r="F261" s="45"/>
@@ -8610,7 +8624,7 @@
       <c r="K261" s="39"/>
     </row>
     <row r="262" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B262" s="93"/>
+      <c r="B262" s="92"/>
       <c r="C262" s="89"/>
       <c r="D262" s="44"/>
       <c r="E262" s="41"/>
@@ -8622,8 +8636,8 @@
       <c r="K262" s="39"/>
     </row>
     <row r="263" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B263" s="92"/>
-      <c r="C263" s="90"/>
+      <c r="B263" s="91"/>
+      <c r="C263" s="88"/>
       <c r="D263" s="44"/>
       <c r="E263" s="41"/>
       <c r="F263" s="45"/>
@@ -8634,7 +8648,7 @@
       <c r="K263" s="39"/>
     </row>
     <row r="264" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B264" s="93"/>
+      <c r="B264" s="92"/>
       <c r="C264" s="89"/>
       <c r="D264" s="44"/>
       <c r="E264" s="41"/>
@@ -8646,8 +8660,8 @@
       <c r="K264" s="39"/>
     </row>
     <row r="265" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B265" s="92"/>
-      <c r="C265" s="90"/>
+      <c r="B265" s="91"/>
+      <c r="C265" s="88"/>
       <c r="D265" s="44"/>
       <c r="E265" s="41"/>
       <c r="F265" s="45"/>
@@ -8658,7 +8672,7 @@
       <c r="K265" s="39"/>
     </row>
     <row r="266" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B266" s="93"/>
+      <c r="B266" s="92"/>
       <c r="C266" s="89"/>
       <c r="D266" s="44"/>
       <c r="E266" s="41"/>
@@ -8670,8 +8684,8 @@
       <c r="K266" s="39"/>
     </row>
     <row r="267" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B267" s="92"/>
-      <c r="C267" s="90"/>
+      <c r="B267" s="91"/>
+      <c r="C267" s="88"/>
       <c r="D267" s="44"/>
       <c r="E267" s="41"/>
       <c r="F267" s="45"/>
@@ -8682,7 +8696,7 @@
       <c r="K267" s="39"/>
     </row>
     <row r="268" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B268" s="93"/>
+      <c r="B268" s="92"/>
       <c r="C268" s="89"/>
       <c r="D268" s="44"/>
       <c r="E268" s="41"/>
@@ -8694,8 +8708,8 @@
       <c r="K268" s="39"/>
     </row>
     <row r="269" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B269" s="92"/>
-      <c r="C269" s="90"/>
+      <c r="B269" s="91"/>
+      <c r="C269" s="88"/>
       <c r="D269" s="44"/>
       <c r="E269" s="41"/>
       <c r="F269" s="45"/>
@@ -8706,7 +8720,7 @@
       <c r="K269" s="39"/>
     </row>
     <row r="270" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B270" s="93"/>
+      <c r="B270" s="92"/>
       <c r="C270" s="89"/>
       <c r="D270" s="44"/>
       <c r="E270" s="41"/>
@@ -8718,8 +8732,8 @@
       <c r="K270" s="39"/>
     </row>
     <row r="271" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B271" s="92"/>
-      <c r="C271" s="90"/>
+      <c r="B271" s="91"/>
+      <c r="C271" s="88"/>
       <c r="D271" s="44"/>
       <c r="E271" s="41"/>
       <c r="F271" s="45"/>
@@ -8730,7 +8744,7 @@
       <c r="K271" s="39"/>
     </row>
     <row r="272" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B272" s="93"/>
+      <c r="B272" s="92"/>
       <c r="C272" s="89"/>
       <c r="D272" s="44"/>
       <c r="E272" s="41"/>
@@ -8742,8 +8756,8 @@
       <c r="K272" s="39"/>
     </row>
     <row r="273" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B273" s="92"/>
-      <c r="C273" s="90"/>
+      <c r="B273" s="91"/>
+      <c r="C273" s="88"/>
       <c r="D273" s="44"/>
       <c r="E273" s="41"/>
       <c r="F273" s="45"/>
@@ -8754,7 +8768,7 @@
       <c r="K273" s="39"/>
     </row>
     <row r="274" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B274" s="93"/>
+      <c r="B274" s="92"/>
       <c r="C274" s="89"/>
       <c r="D274" s="44"/>
       <c r="E274" s="41"/>
@@ -8766,8 +8780,8 @@
       <c r="K274" s="39"/>
     </row>
     <row r="275" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B275" s="92"/>
-      <c r="C275" s="90"/>
+      <c r="B275" s="91"/>
+      <c r="C275" s="88"/>
       <c r="D275" s="44"/>
       <c r="E275" s="41"/>
       <c r="F275" s="45"/>
@@ -8778,7 +8792,7 @@
       <c r="K275" s="39"/>
     </row>
     <row r="276" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B276" s="93"/>
+      <c r="B276" s="92"/>
       <c r="C276" s="89"/>
       <c r="D276" s="44"/>
       <c r="E276" s="41"/>
@@ -8790,8 +8804,8 @@
       <c r="K276" s="39"/>
     </row>
     <row r="277" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B277" s="92"/>
-      <c r="C277" s="90"/>
+      <c r="B277" s="91"/>
+      <c r="C277" s="88"/>
       <c r="D277" s="44"/>
       <c r="E277" s="41"/>
       <c r="F277" s="45"/>
@@ -8802,7 +8816,7 @@
       <c r="K277" s="39"/>
     </row>
     <row r="278" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B278" s="93"/>
+      <c r="B278" s="92"/>
       <c r="C278" s="89"/>
       <c r="D278" s="44"/>
       <c r="E278" s="41"/>
@@ -8814,8 +8828,8 @@
       <c r="K278" s="39"/>
     </row>
     <row r="279" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B279" s="92"/>
-      <c r="C279" s="90"/>
+      <c r="B279" s="91"/>
+      <c r="C279" s="88"/>
       <c r="D279" s="44"/>
       <c r="E279" s="41"/>
       <c r="F279" s="45"/>
@@ -8826,7 +8840,7 @@
       <c r="K279" s="39"/>
     </row>
     <row r="280" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B280" s="93"/>
+      <c r="B280" s="92"/>
       <c r="C280" s="89"/>
       <c r="D280" s="44"/>
       <c r="E280" s="41"/>
@@ -8838,8 +8852,8 @@
       <c r="K280" s="39"/>
     </row>
     <row r="281" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B281" s="92"/>
-      <c r="C281" s="90"/>
+      <c r="B281" s="91"/>
+      <c r="C281" s="88"/>
       <c r="D281" s="44"/>
       <c r="E281" s="41"/>
       <c r="F281" s="45"/>
@@ -8850,7 +8864,7 @@
       <c r="K281" s="39"/>
     </row>
     <row r="282" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B282" s="93"/>
+      <c r="B282" s="92"/>
       <c r="C282" s="89"/>
       <c r="D282" s="44"/>
       <c r="E282" s="41"/>
@@ -8862,8 +8876,8 @@
       <c r="K282" s="39"/>
     </row>
     <row r="283" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B283" s="92"/>
-      <c r="C283" s="90"/>
+      <c r="B283" s="91"/>
+      <c r="C283" s="88"/>
       <c r="D283" s="44"/>
       <c r="E283" s="41"/>
       <c r="F283" s="45"/>
@@ -8874,7 +8888,7 @@
       <c r="K283" s="39"/>
     </row>
     <row r="284" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B284" s="93"/>
+      <c r="B284" s="92"/>
       <c r="C284" s="89"/>
       <c r="D284" s="44"/>
       <c r="E284" s="41"/>
@@ -8886,8 +8900,8 @@
       <c r="K284" s="39"/>
     </row>
     <row r="285" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B285" s="92"/>
-      <c r="C285" s="90"/>
+      <c r="B285" s="91"/>
+      <c r="C285" s="88"/>
       <c r="D285" s="44"/>
       <c r="E285" s="41"/>
       <c r="F285" s="45"/>
@@ -8898,7 +8912,7 @@
       <c r="K285" s="39"/>
     </row>
     <row r="286" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B286" s="93"/>
+      <c r="B286" s="92"/>
       <c r="C286" s="89"/>
       <c r="D286" s="44"/>
       <c r="E286" s="41"/>
@@ -8910,8 +8924,8 @@
       <c r="K286" s="39"/>
     </row>
     <row r="287" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B287" s="92"/>
-      <c r="C287" s="90"/>
+      <c r="B287" s="91"/>
+      <c r="C287" s="88"/>
       <c r="D287" s="44"/>
       <c r="E287" s="41"/>
       <c r="F287" s="45"/>
@@ -8922,7 +8936,7 @@
       <c r="K287" s="39"/>
     </row>
     <row r="288" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B288" s="93"/>
+      <c r="B288" s="92"/>
       <c r="C288" s="89"/>
       <c r="D288" s="44"/>
       <c r="E288" s="41"/>
@@ -8934,8 +8948,8 @@
       <c r="K288" s="39"/>
     </row>
     <row r="289" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B289" s="92"/>
-      <c r="C289" s="90"/>
+      <c r="B289" s="91"/>
+      <c r="C289" s="88"/>
       <c r="D289" s="44"/>
       <c r="E289" s="41"/>
       <c r="F289" s="45"/>
@@ -8946,7 +8960,7 @@
       <c r="K289" s="39"/>
     </row>
     <row r="290" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B290" s="93"/>
+      <c r="B290" s="92"/>
       <c r="C290" s="89"/>
       <c r="D290" s="44"/>
       <c r="E290" s="41"/>
@@ -8958,8 +8972,8 @@
       <c r="K290" s="39"/>
     </row>
     <row r="291" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B291" s="92"/>
-      <c r="C291" s="90"/>
+      <c r="B291" s="91"/>
+      <c r="C291" s="88"/>
       <c r="D291" s="44"/>
       <c r="E291" s="41"/>
       <c r="F291" s="45"/>
@@ -8970,7 +8984,7 @@
       <c r="K291" s="39"/>
     </row>
     <row r="292" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B292" s="93"/>
+      <c r="B292" s="92"/>
       <c r="C292" s="89"/>
       <c r="D292" s="44"/>
       <c r="E292" s="41"/>
@@ -8982,8 +8996,8 @@
       <c r="K292" s="39"/>
     </row>
     <row r="293" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B293" s="92"/>
-      <c r="C293" s="90"/>
+      <c r="B293" s="91"/>
+      <c r="C293" s="88"/>
       <c r="D293" s="44"/>
       <c r="E293" s="41"/>
       <c r="F293" s="45"/>
@@ -8994,7 +9008,7 @@
       <c r="K293" s="39"/>
     </row>
     <row r="294" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B294" s="93"/>
+      <c r="B294" s="92"/>
       <c r="C294" s="89"/>
       <c r="D294" s="44"/>
       <c r="E294" s="41"/>
@@ -9006,8 +9020,8 @@
       <c r="K294" s="39"/>
     </row>
     <row r="295" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B295" s="92"/>
-      <c r="C295" s="90"/>
+      <c r="B295" s="91"/>
+      <c r="C295" s="88"/>
       <c r="D295" s="44"/>
       <c r="E295" s="41"/>
       <c r="F295" s="45"/>
@@ -9018,7 +9032,7 @@
       <c r="K295" s="39"/>
     </row>
     <row r="296" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B296" s="93"/>
+      <c r="B296" s="92"/>
       <c r="C296" s="89"/>
       <c r="D296" s="44"/>
       <c r="E296" s="41"/>
@@ -9030,8 +9044,8 @@
       <c r="K296" s="39"/>
     </row>
     <row r="297" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B297" s="92"/>
-      <c r="C297" s="90"/>
+      <c r="B297" s="91"/>
+      <c r="C297" s="88"/>
       <c r="D297" s="44"/>
       <c r="E297" s="41"/>
       <c r="F297" s="45"/>
@@ -9042,7 +9056,7 @@
       <c r="K297" s="39"/>
     </row>
     <row r="298" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B298" s="93"/>
+      <c r="B298" s="92"/>
       <c r="C298" s="89"/>
       <c r="D298" s="44"/>
       <c r="E298" s="41"/>
@@ -9054,8 +9068,8 @@
       <c r="K298" s="39"/>
     </row>
     <row r="299" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B299" s="92"/>
-      <c r="C299" s="90"/>
+      <c r="B299" s="91"/>
+      <c r="C299" s="88"/>
       <c r="D299" s="44"/>
       <c r="E299" s="41"/>
       <c r="F299" s="45"/>
@@ -9066,7 +9080,7 @@
       <c r="K299" s="39"/>
     </row>
     <row r="300" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B300" s="93"/>
+      <c r="B300" s="92"/>
       <c r="C300" s="89"/>
       <c r="D300" s="44"/>
       <c r="E300" s="41"/>
@@ -9078,8 +9092,8 @@
       <c r="K300" s="39"/>
     </row>
     <row r="301" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B301" s="92"/>
-      <c r="C301" s="90"/>
+      <c r="B301" s="91"/>
+      <c r="C301" s="88"/>
       <c r="D301" s="44"/>
       <c r="E301" s="41"/>
       <c r="F301" s="45"/>
@@ -9090,7 +9104,7 @@
       <c r="K301" s="39"/>
     </row>
     <row r="302" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B302" s="93"/>
+      <c r="B302" s="92"/>
       <c r="C302" s="89"/>
       <c r="D302" s="44"/>
       <c r="E302" s="41"/>
@@ -9102,8 +9116,8 @@
       <c r="K302" s="39"/>
     </row>
     <row r="303" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B303" s="92"/>
-      <c r="C303" s="90"/>
+      <c r="B303" s="91"/>
+      <c r="C303" s="88"/>
       <c r="D303" s="44"/>
       <c r="E303" s="41"/>
       <c r="F303" s="45"/>
@@ -9114,7 +9128,7 @@
       <c r="K303" s="39"/>
     </row>
     <row r="304" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B304" s="93"/>
+      <c r="B304" s="92"/>
       <c r="C304" s="89"/>
       <c r="D304" s="44"/>
       <c r="E304" s="41"/>
@@ -9126,8 +9140,8 @@
       <c r="K304" s="39"/>
     </row>
     <row r="305" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B305" s="92"/>
-      <c r="C305" s="90"/>
+      <c r="B305" s="91"/>
+      <c r="C305" s="88"/>
       <c r="D305" s="44"/>
       <c r="E305" s="41"/>
       <c r="F305" s="45"/>
@@ -9138,7 +9152,7 @@
       <c r="K305" s="39"/>
     </row>
     <row r="306" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B306" s="93"/>
+      <c r="B306" s="92"/>
       <c r="C306" s="89"/>
       <c r="D306" s="44"/>
       <c r="E306" s="41"/>
@@ -9150,8 +9164,8 @@
       <c r="K306" s="39"/>
     </row>
     <row r="307" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B307" s="92"/>
-      <c r="C307" s="90"/>
+      <c r="B307" s="91"/>
+      <c r="C307" s="88"/>
       <c r="D307" s="44"/>
       <c r="E307" s="41"/>
       <c r="F307" s="45"/>
@@ -9162,7 +9176,7 @@
       <c r="K307" s="39"/>
     </row>
     <row r="308" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B308" s="93"/>
+      <c r="B308" s="92"/>
       <c r="C308" s="89"/>
       <c r="D308" s="44"/>
       <c r="E308" s="41"/>
@@ -9174,8 +9188,8 @@
       <c r="K308" s="39"/>
     </row>
     <row r="309" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B309" s="92"/>
-      <c r="C309" s="90"/>
+      <c r="B309" s="91"/>
+      <c r="C309" s="88"/>
       <c r="D309" s="44"/>
       <c r="E309" s="41"/>
       <c r="F309" s="45"/>
@@ -9186,7 +9200,7 @@
       <c r="K309" s="39"/>
     </row>
     <row r="310" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B310" s="93"/>
+      <c r="B310" s="92"/>
       <c r="C310" s="89"/>
       <c r="D310" s="44"/>
       <c r="E310" s="41"/>
@@ -9198,8 +9212,8 @@
       <c r="K310" s="39"/>
     </row>
     <row r="311" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B311" s="92"/>
-      <c r="C311" s="90"/>
+      <c r="B311" s="91"/>
+      <c r="C311" s="88"/>
       <c r="D311" s="44"/>
       <c r="E311" s="41"/>
       <c r="F311" s="45"/>
@@ -9210,7 +9224,7 @@
       <c r="K311" s="39"/>
     </row>
     <row r="312" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B312" s="93"/>
+      <c r="B312" s="92"/>
       <c r="C312" s="89"/>
       <c r="D312" s="44"/>
       <c r="E312" s="41"/>
@@ -9222,8 +9236,8 @@
       <c r="K312" s="39"/>
     </row>
     <row r="313" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B313" s="92"/>
-      <c r="C313" s="90"/>
+      <c r="B313" s="91"/>
+      <c r="C313" s="88"/>
       <c r="D313" s="44"/>
       <c r="E313" s="41"/>
       <c r="F313" s="45"/>
@@ -9234,7 +9248,7 @@
       <c r="K313" s="39"/>
     </row>
     <row r="314" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B314" s="93"/>
+      <c r="B314" s="92"/>
       <c r="C314" s="89"/>
       <c r="D314" s="44"/>
       <c r="E314" s="41"/>
@@ -9246,8 +9260,8 @@
       <c r="K314" s="39"/>
     </row>
     <row r="315" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B315" s="92"/>
-      <c r="C315" s="90"/>
+      <c r="B315" s="91"/>
+      <c r="C315" s="88"/>
       <c r="D315" s="44"/>
       <c r="E315" s="41"/>
       <c r="F315" s="45"/>
@@ -9258,7 +9272,7 @@
       <c r="K315" s="39"/>
     </row>
     <row r="316" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B316" s="93"/>
+      <c r="B316" s="92"/>
       <c r="C316" s="89"/>
       <c r="D316" s="44"/>
       <c r="E316" s="41"/>
@@ -9270,8 +9284,8 @@
       <c r="K316" s="39"/>
     </row>
     <row r="317" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B317" s="92"/>
-      <c r="C317" s="90"/>
+      <c r="B317" s="91"/>
+      <c r="C317" s="88"/>
       <c r="D317" s="44"/>
       <c r="E317" s="41"/>
       <c r="F317" s="45"/>
@@ -9282,7 +9296,7 @@
       <c r="K317" s="39"/>
     </row>
     <row r="318" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B318" s="93"/>
+      <c r="B318" s="92"/>
       <c r="C318" s="89"/>
       <c r="D318" s="44"/>
       <c r="E318" s="41"/>
@@ -9294,8 +9308,8 @@
       <c r="K318" s="39"/>
     </row>
     <row r="319" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B319" s="92"/>
-      <c r="C319" s="90"/>
+      <c r="B319" s="91"/>
+      <c r="C319" s="88"/>
       <c r="D319" s="44"/>
       <c r="E319" s="41"/>
       <c r="F319" s="45"/>
@@ -9306,7 +9320,7 @@
       <c r="K319" s="39"/>
     </row>
     <row r="320" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B320" s="93"/>
+      <c r="B320" s="92"/>
       <c r="C320" s="89"/>
       <c r="D320" s="44"/>
       <c r="E320" s="41"/>
@@ -9318,8 +9332,8 @@
       <c r="K320" s="39"/>
     </row>
     <row r="321" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B321" s="92"/>
-      <c r="C321" s="90"/>
+      <c r="B321" s="91"/>
+      <c r="C321" s="88"/>
       <c r="D321" s="44"/>
       <c r="E321" s="41"/>
       <c r="F321" s="45"/>
@@ -9330,7 +9344,7 @@
       <c r="K321" s="39"/>
     </row>
     <row r="322" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B322" s="93"/>
+      <c r="B322" s="92"/>
       <c r="C322" s="89"/>
       <c r="D322" s="44"/>
       <c r="E322" s="41"/>
@@ -9342,8 +9356,8 @@
       <c r="K322" s="39"/>
     </row>
     <row r="323" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B323" s="92"/>
-      <c r="C323" s="90"/>
+      <c r="B323" s="91"/>
+      <c r="C323" s="88"/>
       <c r="D323" s="44"/>
       <c r="E323" s="41"/>
       <c r="F323" s="45"/>
@@ -9354,7 +9368,7 @@
       <c r="K323" s="39"/>
     </row>
     <row r="324" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B324" s="93"/>
+      <c r="B324" s="92"/>
       <c r="C324" s="89"/>
       <c r="D324" s="44"/>
       <c r="E324" s="41"/>
@@ -9366,8 +9380,8 @@
       <c r="K324" s="39"/>
     </row>
     <row r="325" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B325" s="92"/>
-      <c r="C325" s="90"/>
+      <c r="B325" s="91"/>
+      <c r="C325" s="88"/>
       <c r="D325" s="44"/>
       <c r="E325" s="41"/>
       <c r="F325" s="45"/>
@@ -9378,7 +9392,7 @@
       <c r="K325" s="39"/>
     </row>
     <row r="326" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B326" s="93"/>
+      <c r="B326" s="92"/>
       <c r="C326" s="89"/>
       <c r="D326" s="44"/>
       <c r="E326" s="41"/>
@@ -9390,8 +9404,8 @@
       <c r="K326" s="39"/>
     </row>
     <row r="327" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B327" s="92"/>
-      <c r="C327" s="90"/>
+      <c r="B327" s="91"/>
+      <c r="C327" s="88"/>
       <c r="D327" s="44"/>
       <c r="E327" s="41"/>
       <c r="F327" s="45"/>
@@ -9402,7 +9416,7 @@
       <c r="K327" s="39"/>
     </row>
     <row r="328" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B328" s="93"/>
+      <c r="B328" s="92"/>
       <c r="C328" s="89"/>
       <c r="D328" s="44"/>
       <c r="E328" s="41"/>
@@ -9414,8 +9428,8 @@
       <c r="K328" s="39"/>
     </row>
     <row r="329" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B329" s="92"/>
-      <c r="C329" s="90"/>
+      <c r="B329" s="91"/>
+      <c r="C329" s="88"/>
       <c r="D329" s="44"/>
       <c r="E329" s="41"/>
       <c r="F329" s="45"/>
@@ -9426,7 +9440,7 @@
       <c r="K329" s="39"/>
     </row>
     <row r="330" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B330" s="93"/>
+      <c r="B330" s="92"/>
       <c r="C330" s="89"/>
       <c r="D330" s="44"/>
       <c r="E330" s="41"/>
@@ -9438,8 +9452,8 @@
       <c r="K330" s="39"/>
     </row>
     <row r="331" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B331" s="92"/>
-      <c r="C331" s="90"/>
+      <c r="B331" s="91"/>
+      <c r="C331" s="88"/>
       <c r="D331" s="44"/>
       <c r="E331" s="41"/>
       <c r="F331" s="45"/>
@@ -9450,7 +9464,7 @@
       <c r="K331" s="39"/>
     </row>
     <row r="332" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B332" s="93"/>
+      <c r="B332" s="92"/>
       <c r="C332" s="89"/>
       <c r="D332" s="44"/>
       <c r="E332" s="41"/>
@@ -9462,8 +9476,8 @@
       <c r="K332" s="39"/>
     </row>
     <row r="333" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B333" s="92"/>
-      <c r="C333" s="90"/>
+      <c r="B333" s="91"/>
+      <c r="C333" s="88"/>
       <c r="D333" s="44"/>
       <c r="E333" s="41"/>
       <c r="F333" s="45"/>
@@ -9474,7 +9488,7 @@
       <c r="K333" s="39"/>
     </row>
     <row r="334" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B334" s="93"/>
+      <c r="B334" s="92"/>
       <c r="C334" s="89"/>
       <c r="D334" s="44"/>
       <c r="E334" s="41"/>
@@ -9486,8 +9500,8 @@
       <c r="K334" s="39"/>
     </row>
     <row r="335" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B335" s="92"/>
-      <c r="C335" s="90"/>
+      <c r="B335" s="91"/>
+      <c r="C335" s="88"/>
       <c r="D335" s="44"/>
       <c r="E335" s="41"/>
       <c r="F335" s="45"/>
@@ -9498,7 +9512,7 @@
       <c r="K335" s="39"/>
     </row>
     <row r="336" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B336" s="93"/>
+      <c r="B336" s="92"/>
       <c r="C336" s="89"/>
       <c r="D336" s="44"/>
       <c r="E336" s="41"/>
@@ -9510,8 +9524,8 @@
       <c r="K336" s="39"/>
     </row>
     <row r="337" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B337" s="92"/>
-      <c r="C337" s="90"/>
+      <c r="B337" s="91"/>
+      <c r="C337" s="88"/>
       <c r="D337" s="44"/>
       <c r="E337" s="41"/>
       <c r="F337" s="45"/>
@@ -9522,7 +9536,7 @@
       <c r="K337" s="39"/>
     </row>
     <row r="338" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B338" s="93"/>
+      <c r="B338" s="92"/>
       <c r="C338" s="89"/>
       <c r="D338" s="44"/>
       <c r="E338" s="41"/>
@@ -9534,8 +9548,8 @@
       <c r="K338" s="39"/>
     </row>
     <row r="339" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B339" s="92"/>
-      <c r="C339" s="90"/>
+      <c r="B339" s="91"/>
+      <c r="C339" s="88"/>
       <c r="D339" s="44"/>
       <c r="E339" s="41"/>
       <c r="F339" s="45"/>
@@ -9546,7 +9560,7 @@
       <c r="K339" s="39"/>
     </row>
     <row r="340" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B340" s="93"/>
+      <c r="B340" s="92"/>
       <c r="C340" s="89"/>
       <c r="D340" s="44"/>
       <c r="E340" s="41"/>
@@ -9558,8 +9572,8 @@
       <c r="K340" s="39"/>
     </row>
     <row r="341" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B341" s="92"/>
-      <c r="C341" s="90"/>
+      <c r="B341" s="91"/>
+      <c r="C341" s="88"/>
       <c r="D341" s="44"/>
       <c r="E341" s="41"/>
       <c r="F341" s="45"/>
@@ -9570,7 +9584,7 @@
       <c r="K341" s="39"/>
     </row>
     <row r="342" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B342" s="93"/>
+      <c r="B342" s="92"/>
       <c r="C342" s="89"/>
       <c r="D342" s="44"/>
       <c r="E342" s="41"/>
@@ -9582,8 +9596,8 @@
       <c r="K342" s="39"/>
     </row>
     <row r="343" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B343" s="92"/>
-      <c r="C343" s="90"/>
+      <c r="B343" s="91"/>
+      <c r="C343" s="88"/>
       <c r="D343" s="44"/>
       <c r="E343" s="41"/>
       <c r="F343" s="45"/>
@@ -9594,7 +9608,7 @@
       <c r="K343" s="39"/>
     </row>
     <row r="344" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B344" s="93"/>
+      <c r="B344" s="92"/>
       <c r="C344" s="89"/>
       <c r="D344" s="44"/>
       <c r="E344" s="41"/>
@@ -9606,8 +9620,8 @@
       <c r="K344" s="39"/>
     </row>
     <row r="345" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B345" s="92"/>
-      <c r="C345" s="90"/>
+      <c r="B345" s="91"/>
+      <c r="C345" s="88"/>
       <c r="D345" s="44"/>
       <c r="E345" s="41"/>
       <c r="F345" s="45"/>
@@ -9618,7 +9632,7 @@
       <c r="K345" s="39"/>
     </row>
     <row r="346" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B346" s="93"/>
+      <c r="B346" s="92"/>
       <c r="C346" s="89"/>
       <c r="D346" s="44"/>
       <c r="E346" s="41"/>
@@ -9630,8 +9644,8 @@
       <c r="K346" s="39"/>
     </row>
     <row r="347" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B347" s="92"/>
-      <c r="C347" s="90"/>
+      <c r="B347" s="91"/>
+      <c r="C347" s="88"/>
       <c r="D347" s="44"/>
       <c r="E347" s="41"/>
       <c r="F347" s="45"/>
@@ -9642,7 +9656,7 @@
       <c r="K347" s="39"/>
     </row>
     <row r="348" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B348" s="93"/>
+      <c r="B348" s="92"/>
       <c r="C348" s="89"/>
       <c r="D348" s="44"/>
       <c r="E348" s="41"/>
@@ -9654,8 +9668,8 @@
       <c r="K348" s="39"/>
     </row>
     <row r="349" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B349" s="92"/>
-      <c r="C349" s="90"/>
+      <c r="B349" s="91"/>
+      <c r="C349" s="88"/>
       <c r="D349" s="44"/>
       <c r="E349" s="41"/>
       <c r="F349" s="45"/>
@@ -9666,7 +9680,7 @@
       <c r="K349" s="39"/>
     </row>
     <row r="350" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B350" s="93"/>
+      <c r="B350" s="92"/>
       <c r="C350" s="89"/>
       <c r="D350" s="44"/>
       <c r="E350" s="41"/>
@@ -9678,8 +9692,8 @@
       <c r="K350" s="39"/>
     </row>
     <row r="351" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B351" s="92"/>
-      <c r="C351" s="90"/>
+      <c r="B351" s="91"/>
+      <c r="C351" s="88"/>
       <c r="D351" s="44"/>
       <c r="E351" s="41"/>
       <c r="F351" s="45"/>
@@ -9690,7 +9704,7 @@
       <c r="K351" s="39"/>
     </row>
     <row r="352" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B352" s="93"/>
+      <c r="B352" s="92"/>
       <c r="C352" s="89"/>
       <c r="D352" s="44"/>
       <c r="E352" s="41"/>
@@ -9702,8 +9716,8 @@
       <c r="K352" s="39"/>
     </row>
     <row r="353" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B353" s="92"/>
-      <c r="C353" s="90"/>
+      <c r="B353" s="91"/>
+      <c r="C353" s="88"/>
       <c r="D353" s="44"/>
       <c r="E353" s="41"/>
       <c r="F353" s="45"/>
@@ -9714,7 +9728,7 @@
       <c r="K353" s="39"/>
     </row>
     <row r="354" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B354" s="93"/>
+      <c r="B354" s="92"/>
       <c r="C354" s="89"/>
       <c r="D354" s="44"/>
       <c r="E354" s="41"/>
@@ -9726,8 +9740,8 @@
       <c r="K354" s="39"/>
     </row>
     <row r="355" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B355" s="92"/>
-      <c r="C355" s="90"/>
+      <c r="B355" s="91"/>
+      <c r="C355" s="88"/>
       <c r="D355" s="44"/>
       <c r="E355" s="41"/>
       <c r="F355" s="45"/>
@@ -9738,7 +9752,7 @@
       <c r="K355" s="39"/>
     </row>
     <row r="356" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B356" s="93"/>
+      <c r="B356" s="92"/>
       <c r="C356" s="89"/>
       <c r="D356" s="44"/>
       <c r="E356" s="41"/>
@@ -9750,8 +9764,8 @@
       <c r="K356" s="39"/>
     </row>
     <row r="357" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B357" s="92"/>
-      <c r="C357" s="90"/>
+      <c r="B357" s="91"/>
+      <c r="C357" s="88"/>
       <c r="D357" s="44"/>
       <c r="E357" s="41"/>
       <c r="F357" s="45"/>
@@ -9762,7 +9776,7 @@
       <c r="K357" s="39"/>
     </row>
     <row r="358" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B358" s="93"/>
+      <c r="B358" s="92"/>
       <c r="C358" s="89"/>
       <c r="D358" s="44"/>
       <c r="E358" s="41"/>
@@ -9774,8 +9788,8 @@
       <c r="K358" s="39"/>
     </row>
     <row r="359" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B359" s="92"/>
-      <c r="C359" s="90"/>
+      <c r="B359" s="91"/>
+      <c r="C359" s="88"/>
       <c r="D359" s="44"/>
       <c r="E359" s="41"/>
       <c r="F359" s="45"/>
@@ -9786,7 +9800,7 @@
       <c r="K359" s="39"/>
     </row>
     <row r="360" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B360" s="93"/>
+      <c r="B360" s="92"/>
       <c r="C360" s="89"/>
       <c r="D360" s="44"/>
       <c r="E360" s="41"/>
@@ -9798,8 +9812,8 @@
       <c r="K360" s="39"/>
     </row>
     <row r="361" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B361" s="92"/>
-      <c r="C361" s="90"/>
+      <c r="B361" s="91"/>
+      <c r="C361" s="88"/>
       <c r="D361" s="44"/>
       <c r="E361" s="41"/>
       <c r="F361" s="45"/>
@@ -9810,7 +9824,7 @@
       <c r="K361" s="39"/>
     </row>
     <row r="362" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B362" s="93"/>
+      <c r="B362" s="92"/>
       <c r="C362" s="89"/>
       <c r="D362" s="44"/>
       <c r="E362" s="41"/>
@@ -9822,8 +9836,8 @@
       <c r="K362" s="39"/>
     </row>
     <row r="363" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B363" s="92"/>
-      <c r="C363" s="90"/>
+      <c r="B363" s="91"/>
+      <c r="C363" s="88"/>
       <c r="D363" s="44"/>
       <c r="E363" s="41"/>
       <c r="F363" s="45"/>
@@ -9834,7 +9848,7 @@
       <c r="K363" s="39"/>
     </row>
     <row r="364" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B364" s="93"/>
+      <c r="B364" s="92"/>
       <c r="C364" s="89"/>
       <c r="D364" s="44"/>
       <c r="E364" s="41"/>
@@ -9846,8 +9860,8 @@
       <c r="K364" s="39"/>
     </row>
     <row r="365" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B365" s="92"/>
-      <c r="C365" s="90"/>
+      <c r="B365" s="91"/>
+      <c r="C365" s="88"/>
       <c r="D365" s="44"/>
       <c r="E365" s="41"/>
       <c r="F365" s="45"/>
@@ -9858,7 +9872,7 @@
       <c r="K365" s="39"/>
     </row>
     <row r="366" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B366" s="93"/>
+      <c r="B366" s="92"/>
       <c r="C366" s="89"/>
       <c r="D366" s="44"/>
       <c r="E366" s="41"/>
@@ -9870,8 +9884,8 @@
       <c r="K366" s="39"/>
     </row>
     <row r="367" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B367" s="92"/>
-      <c r="C367" s="90"/>
+      <c r="B367" s="91"/>
+      <c r="C367" s="88"/>
       <c r="D367" s="44"/>
       <c r="E367" s="41"/>
       <c r="F367" s="45"/>
@@ -9882,7 +9896,7 @@
       <c r="K367" s="39"/>
     </row>
     <row r="368" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B368" s="93"/>
+      <c r="B368" s="92"/>
       <c r="C368" s="89"/>
       <c r="D368" s="44"/>
       <c r="E368" s="41"/>
@@ -9894,8 +9908,8 @@
       <c r="K368" s="39"/>
     </row>
     <row r="369" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B369" s="92"/>
-      <c r="C369" s="90"/>
+      <c r="B369" s="91"/>
+      <c r="C369" s="88"/>
       <c r="D369" s="44"/>
       <c r="E369" s="41"/>
       <c r="F369" s="45"/>
@@ -9906,7 +9920,7 @@
       <c r="K369" s="39"/>
     </row>
     <row r="370" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B370" s="93"/>
+      <c r="B370" s="92"/>
       <c r="C370" s="89"/>
       <c r="D370" s="44"/>
       <c r="E370" s="41"/>
@@ -9918,8 +9932,8 @@
       <c r="K370" s="39"/>
     </row>
     <row r="371" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B371" s="92"/>
-      <c r="C371" s="90"/>
+      <c r="B371" s="91"/>
+      <c r="C371" s="88"/>
       <c r="D371" s="44"/>
       <c r="E371" s="41"/>
       <c r="F371" s="45"/>
@@ -9930,7 +9944,7 @@
       <c r="K371" s="39"/>
     </row>
     <row r="372" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B372" s="93"/>
+      <c r="B372" s="92"/>
       <c r="C372" s="89"/>
       <c r="D372" s="44"/>
       <c r="E372" s="41"/>
@@ -9942,8 +9956,8 @@
       <c r="K372" s="39"/>
     </row>
     <row r="373" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B373" s="92"/>
-      <c r="C373" s="90"/>
+      <c r="B373" s="91"/>
+      <c r="C373" s="88"/>
       <c r="D373" s="44"/>
       <c r="E373" s="41"/>
       <c r="F373" s="45"/>
@@ -9954,7 +9968,7 @@
       <c r="K373" s="39"/>
     </row>
     <row r="374" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B374" s="93"/>
+      <c r="B374" s="92"/>
       <c r="C374" s="89"/>
       <c r="D374" s="44"/>
       <c r="E374" s="41"/>
@@ -9966,8 +9980,8 @@
       <c r="K374" s="39"/>
     </row>
     <row r="375" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B375" s="92"/>
-      <c r="C375" s="90"/>
+      <c r="B375" s="91"/>
+      <c r="C375" s="88"/>
       <c r="D375" s="44"/>
       <c r="E375" s="41"/>
       <c r="F375" s="45"/>
@@ -9978,7 +9992,7 @@
       <c r="K375" s="39"/>
     </row>
     <row r="376" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B376" s="93"/>
+      <c r="B376" s="92"/>
       <c r="C376" s="89"/>
       <c r="D376" s="44"/>
       <c r="E376" s="41"/>
@@ -9990,8 +10004,8 @@
       <c r="K376" s="39"/>
     </row>
     <row r="377" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B377" s="92"/>
-      <c r="C377" s="90"/>
+      <c r="B377" s="91"/>
+      <c r="C377" s="88"/>
       <c r="D377" s="44"/>
       <c r="E377" s="41"/>
       <c r="F377" s="45"/>
@@ -10002,7 +10016,7 @@
       <c r="K377" s="39"/>
     </row>
     <row r="378" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B378" s="93"/>
+      <c r="B378" s="92"/>
       <c r="C378" s="89"/>
       <c r="D378" s="44"/>
       <c r="E378" s="41"/>
@@ -10014,8 +10028,8 @@
       <c r="K378" s="39"/>
     </row>
     <row r="379" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B379" s="92"/>
-      <c r="C379" s="90"/>
+      <c r="B379" s="91"/>
+      <c r="C379" s="88"/>
       <c r="D379" s="44"/>
       <c r="E379" s="41"/>
       <c r="F379" s="45"/>
@@ -10026,7 +10040,7 @@
       <c r="K379" s="39"/>
     </row>
     <row r="380" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B380" s="93"/>
+      <c r="B380" s="92"/>
       <c r="C380" s="89"/>
       <c r="D380" s="44"/>
       <c r="E380" s="41"/>
@@ -10038,8 +10052,8 @@
       <c r="K380" s="39"/>
     </row>
     <row r="381" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B381" s="92"/>
-      <c r="C381" s="90"/>
+      <c r="B381" s="91"/>
+      <c r="C381" s="88"/>
       <c r="D381" s="44"/>
       <c r="E381" s="41"/>
       <c r="F381" s="45"/>
@@ -10050,7 +10064,7 @@
       <c r="K381" s="39"/>
     </row>
     <row r="382" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B382" s="93"/>
+      <c r="B382" s="92"/>
       <c r="C382" s="89"/>
       <c r="D382" s="44"/>
       <c r="E382" s="41"/>
@@ -10062,8 +10076,8 @@
       <c r="K382" s="39"/>
     </row>
     <row r="383" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B383" s="92"/>
-      <c r="C383" s="90"/>
+      <c r="B383" s="91"/>
+      <c r="C383" s="88"/>
       <c r="D383" s="44"/>
       <c r="E383" s="41"/>
       <c r="F383" s="45"/>
@@ -10074,7 +10088,7 @@
       <c r="K383" s="39"/>
     </row>
     <row r="384" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B384" s="93"/>
+      <c r="B384" s="92"/>
       <c r="C384" s="89"/>
       <c r="D384" s="44"/>
       <c r="E384" s="41"/>
@@ -10086,8 +10100,8 @@
       <c r="K384" s="39"/>
     </row>
     <row r="385" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B385" s="92"/>
-      <c r="C385" s="90"/>
+      <c r="B385" s="91"/>
+      <c r="C385" s="88"/>
       <c r="D385" s="44"/>
       <c r="E385" s="41"/>
       <c r="F385" s="45"/>
@@ -10098,7 +10112,7 @@
       <c r="K385" s="39"/>
     </row>
     <row r="386" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B386" s="93"/>
+      <c r="B386" s="92"/>
       <c r="C386" s="89"/>
       <c r="D386" s="44"/>
       <c r="E386" s="41"/>
@@ -10110,8 +10124,8 @@
       <c r="K386" s="39"/>
     </row>
     <row r="387" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B387" s="92"/>
-      <c r="C387" s="90"/>
+      <c r="B387" s="91"/>
+      <c r="C387" s="88"/>
       <c r="D387" s="44"/>
       <c r="E387" s="41"/>
       <c r="F387" s="45"/>
@@ -10122,7 +10136,7 @@
       <c r="K387" s="39"/>
     </row>
     <row r="388" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B388" s="93"/>
+      <c r="B388" s="92"/>
       <c r="C388" s="89"/>
       <c r="D388" s="44"/>
       <c r="E388" s="41"/>
@@ -10134,8 +10148,8 @@
       <c r="K388" s="39"/>
     </row>
     <row r="389" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B389" s="92"/>
-      <c r="C389" s="90"/>
+      <c r="B389" s="91"/>
+      <c r="C389" s="88"/>
       <c r="D389" s="44"/>
       <c r="E389" s="41"/>
       <c r="F389" s="45"/>
@@ -10146,7 +10160,7 @@
       <c r="K389" s="39"/>
     </row>
     <row r="390" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B390" s="93"/>
+      <c r="B390" s="92"/>
       <c r="C390" s="89"/>
       <c r="D390" s="44"/>
       <c r="E390" s="41"/>
@@ -10158,8 +10172,8 @@
       <c r="K390" s="39"/>
     </row>
     <row r="391" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B391" s="92"/>
-      <c r="C391" s="90"/>
+      <c r="B391" s="91"/>
+      <c r="C391" s="88"/>
       <c r="D391" s="44"/>
       <c r="E391" s="41"/>
       <c r="F391" s="45"/>
@@ -10170,7 +10184,7 @@
       <c r="K391" s="39"/>
     </row>
     <row r="392" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B392" s="93"/>
+      <c r="B392" s="92"/>
       <c r="C392" s="89"/>
       <c r="D392" s="44"/>
       <c r="E392" s="41"/>
@@ -10182,8 +10196,8 @@
       <c r="K392" s="39"/>
     </row>
     <row r="393" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B393" s="92"/>
-      <c r="C393" s="90"/>
+      <c r="B393" s="91"/>
+      <c r="C393" s="88"/>
       <c r="D393" s="44"/>
       <c r="E393" s="41"/>
       <c r="F393" s="45"/>
@@ -10194,7 +10208,7 @@
       <c r="K393" s="39"/>
     </row>
     <row r="394" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B394" s="93"/>
+      <c r="B394" s="92"/>
       <c r="C394" s="89"/>
       <c r="D394" s="44"/>
       <c r="E394" s="41"/>
@@ -10206,8 +10220,8 @@
       <c r="K394" s="39"/>
     </row>
     <row r="395" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B395" s="92"/>
-      <c r="C395" s="90"/>
+      <c r="B395" s="91"/>
+      <c r="C395" s="88"/>
       <c r="D395" s="44"/>
       <c r="E395" s="41"/>
       <c r="F395" s="45"/>
@@ -10218,7 +10232,7 @@
       <c r="K395" s="39"/>
     </row>
     <row r="396" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B396" s="93"/>
+      <c r="B396" s="92"/>
       <c r="C396" s="89"/>
       <c r="D396" s="44"/>
       <c r="E396" s="41"/>
@@ -10230,8 +10244,8 @@
       <c r="K396" s="39"/>
     </row>
     <row r="397" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B397" s="92"/>
-      <c r="C397" s="90"/>
+      <c r="B397" s="91"/>
+      <c r="C397" s="88"/>
       <c r="D397" s="44"/>
       <c r="E397" s="41"/>
       <c r="F397" s="45"/>
@@ -10242,7 +10256,7 @@
       <c r="K397" s="39"/>
     </row>
     <row r="398" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B398" s="93"/>
+      <c r="B398" s="92"/>
       <c r="C398" s="89"/>
       <c r="D398" s="44"/>
       <c r="E398" s="41"/>
@@ -10254,8 +10268,8 @@
       <c r="K398" s="39"/>
     </row>
     <row r="399" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B399" s="92"/>
-      <c r="C399" s="90"/>
+      <c r="B399" s="91"/>
+      <c r="C399" s="88"/>
       <c r="D399" s="44"/>
       <c r="E399" s="41"/>
       <c r="F399" s="45"/>
@@ -10266,7 +10280,7 @@
       <c r="K399" s="39"/>
     </row>
     <row r="400" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B400" s="93"/>
+      <c r="B400" s="92"/>
       <c r="C400" s="89"/>
       <c r="D400" s="44"/>
       <c r="E400" s="41"/>
@@ -10278,8 +10292,8 @@
       <c r="K400" s="39"/>
     </row>
     <row r="401" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B401" s="92"/>
-      <c r="C401" s="90"/>
+      <c r="B401" s="91"/>
+      <c r="C401" s="88"/>
       <c r="D401" s="44"/>
       <c r="E401" s="41"/>
       <c r="F401" s="45"/>
@@ -10290,7 +10304,7 @@
       <c r="K401" s="39"/>
     </row>
     <row r="402" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B402" s="93"/>
+      <c r="B402" s="92"/>
       <c r="C402" s="89"/>
       <c r="D402" s="44"/>
       <c r="E402" s="41"/>
@@ -10302,8 +10316,8 @@
       <c r="K402" s="39"/>
     </row>
     <row r="403" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B403" s="92"/>
-      <c r="C403" s="90"/>
+      <c r="B403" s="91"/>
+      <c r="C403" s="88"/>
       <c r="D403" s="44"/>
       <c r="E403" s="41"/>
       <c r="F403" s="45"/>
@@ -10314,7 +10328,7 @@
       <c r="K403" s="39"/>
     </row>
     <row r="404" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B404" s="93"/>
+      <c r="B404" s="92"/>
       <c r="C404" s="89"/>
       <c r="D404" s="44"/>
       <c r="E404" s="41"/>
@@ -10326,8 +10340,8 @@
       <c r="K404" s="39"/>
     </row>
     <row r="405" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B405" s="92"/>
-      <c r="C405" s="90"/>
+      <c r="B405" s="91"/>
+      <c r="C405" s="88"/>
       <c r="D405" s="44"/>
       <c r="E405" s="41"/>
       <c r="F405" s="45"/>
@@ -10338,7 +10352,7 @@
       <c r="K405" s="39"/>
     </row>
     <row r="406" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B406" s="93"/>
+      <c r="B406" s="92"/>
       <c r="C406" s="89"/>
       <c r="D406" s="44"/>
       <c r="E406" s="41"/>
@@ -10350,8 +10364,8 @@
       <c r="K406" s="39"/>
     </row>
     <row r="407" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B407" s="92"/>
-      <c r="C407" s="90"/>
+      <c r="B407" s="91"/>
+      <c r="C407" s="88"/>
       <c r="D407" s="44"/>
       <c r="E407" s="41"/>
       <c r="F407" s="45"/>
@@ -10362,7 +10376,7 @@
       <c r="K407" s="39"/>
     </row>
     <row r="408" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B408" s="93"/>
+      <c r="B408" s="92"/>
       <c r="C408" s="89"/>
       <c r="D408" s="44"/>
       <c r="E408" s="41"/>
@@ -10374,8 +10388,8 @@
       <c r="K408" s="39"/>
     </row>
     <row r="409" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B409" s="92"/>
-      <c r="C409" s="90"/>
+      <c r="B409" s="91"/>
+      <c r="C409" s="88"/>
       <c r="D409" s="44"/>
       <c r="E409" s="41"/>
       <c r="F409" s="45"/>
@@ -10386,7 +10400,7 @@
       <c r="K409" s="39"/>
     </row>
     <row r="410" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B410" s="93"/>
+      <c r="B410" s="92"/>
       <c r="C410" s="89"/>
       <c r="D410" s="44"/>
       <c r="E410" s="41"/>
@@ -10398,8 +10412,8 @@
       <c r="K410" s="39"/>
     </row>
     <row r="411" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B411" s="92"/>
-      <c r="C411" s="90"/>
+      <c r="B411" s="91"/>
+      <c r="C411" s="88"/>
       <c r="D411" s="44"/>
       <c r="E411" s="41"/>
       <c r="F411" s="45"/>
@@ -10410,7 +10424,7 @@
       <c r="K411" s="39"/>
     </row>
     <row r="412" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B412" s="93"/>
+      <c r="B412" s="92"/>
       <c r="C412" s="89"/>
       <c r="D412" s="44"/>
       <c r="E412" s="41"/>
@@ -10422,8 +10436,8 @@
       <c r="K412" s="39"/>
     </row>
     <row r="413" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B413" s="92"/>
-      <c r="C413" s="90"/>
+      <c r="B413" s="91"/>
+      <c r="C413" s="88"/>
       <c r="D413" s="44"/>
       <c r="E413" s="41"/>
       <c r="F413" s="45"/>
@@ -10434,7 +10448,7 @@
       <c r="K413" s="39"/>
     </row>
     <row r="414" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B414" s="93"/>
+      <c r="B414" s="92"/>
       <c r="C414" s="89"/>
       <c r="D414" s="44"/>
       <c r="E414" s="41"/>
@@ -10446,8 +10460,8 @@
       <c r="K414" s="39"/>
     </row>
     <row r="415" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B415" s="92"/>
-      <c r="C415" s="90"/>
+      <c r="B415" s="91"/>
+      <c r="C415" s="88"/>
       <c r="D415" s="44"/>
       <c r="E415" s="41"/>
       <c r="F415" s="45"/>
@@ -10458,7 +10472,7 @@
       <c r="K415" s="39"/>
     </row>
     <row r="416" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B416" s="93"/>
+      <c r="B416" s="92"/>
       <c r="C416" s="89"/>
       <c r="D416" s="44"/>
       <c r="E416" s="41"/>
@@ -10470,8 +10484,8 @@
       <c r="K416" s="39"/>
     </row>
     <row r="417" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B417" s="92"/>
-      <c r="C417" s="90"/>
+      <c r="B417" s="91"/>
+      <c r="C417" s="88"/>
       <c r="D417" s="44"/>
       <c r="E417" s="41"/>
       <c r="F417" s="45"/>
@@ -10482,7 +10496,7 @@
       <c r="K417" s="39"/>
     </row>
     <row r="418" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B418" s="93"/>
+      <c r="B418" s="92"/>
       <c r="C418" s="89"/>
       <c r="D418" s="44"/>
       <c r="E418" s="41"/>
@@ -10494,8 +10508,8 @@
       <c r="K418" s="39"/>
     </row>
     <row r="419" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B419" s="92"/>
-      <c r="C419" s="90"/>
+      <c r="B419" s="91"/>
+      <c r="C419" s="88"/>
       <c r="D419" s="44"/>
       <c r="E419" s="41"/>
       <c r="F419" s="45"/>
@@ -10506,7 +10520,7 @@
       <c r="K419" s="39"/>
     </row>
     <row r="420" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B420" s="93"/>
+      <c r="B420" s="92"/>
       <c r="C420" s="89"/>
       <c r="D420" s="44"/>
       <c r="E420" s="41"/>
@@ -10518,8 +10532,8 @@
       <c r="K420" s="39"/>
     </row>
     <row r="421" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B421" s="92"/>
-      <c r="C421" s="90"/>
+      <c r="B421" s="91"/>
+      <c r="C421" s="88"/>
       <c r="D421" s="44"/>
       <c r="E421" s="41"/>
       <c r="F421" s="45"/>
@@ -10530,7 +10544,7 @@
       <c r="K421" s="39"/>
     </row>
     <row r="422" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B422" s="93"/>
+      <c r="B422" s="92"/>
       <c r="C422" s="89"/>
       <c r="D422" s="44"/>
       <c r="E422" s="41"/>
@@ -10542,8 +10556,8 @@
       <c r="K422" s="39"/>
     </row>
     <row r="423" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B423" s="92"/>
-      <c r="C423" s="90"/>
+      <c r="B423" s="91"/>
+      <c r="C423" s="88"/>
       <c r="D423" s="44"/>
       <c r="E423" s="41"/>
       <c r="F423" s="45"/>
@@ -10554,7 +10568,7 @@
       <c r="K423" s="39"/>
     </row>
     <row r="424" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B424" s="93"/>
+      <c r="B424" s="92"/>
       <c r="C424" s="89"/>
       <c r="D424" s="44"/>
       <c r="E424" s="41"/>
@@ -10566,8 +10580,8 @@
       <c r="K424" s="39"/>
     </row>
     <row r="425" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B425" s="92"/>
-      <c r="C425" s="90"/>
+      <c r="B425" s="91"/>
+      <c r="C425" s="88"/>
       <c r="D425" s="44"/>
       <c r="E425" s="41"/>
       <c r="F425" s="45"/>
@@ -10578,7 +10592,7 @@
       <c r="K425" s="39"/>
     </row>
     <row r="426" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B426" s="93"/>
+      <c r="B426" s="92"/>
       <c r="C426" s="89"/>
       <c r="D426" s="44"/>
       <c r="E426" s="41"/>
@@ -10590,8 +10604,8 @@
       <c r="K426" s="39"/>
     </row>
     <row r="427" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B427" s="92"/>
-      <c r="C427" s="90"/>
+      <c r="B427" s="91"/>
+      <c r="C427" s="88"/>
       <c r="D427" s="44"/>
       <c r="E427" s="41"/>
       <c r="F427" s="45"/>
@@ -10602,7 +10616,7 @@
       <c r="K427" s="39"/>
     </row>
     <row r="428" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B428" s="93"/>
+      <c r="B428" s="92"/>
       <c r="C428" s="89"/>
       <c r="D428" s="44"/>
       <c r="E428" s="41"/>
@@ -10614,8 +10628,8 @@
       <c r="K428" s="39"/>
     </row>
     <row r="429" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B429" s="92"/>
-      <c r="C429" s="90"/>
+      <c r="B429" s="91"/>
+      <c r="C429" s="88"/>
       <c r="D429" s="44"/>
       <c r="E429" s="41"/>
       <c r="F429" s="45"/>
@@ -10626,7 +10640,7 @@
       <c r="K429" s="39"/>
     </row>
     <row r="430" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B430" s="93"/>
+      <c r="B430" s="92"/>
       <c r="C430" s="89"/>
       <c r="D430" s="44"/>
       <c r="E430" s="41"/>
@@ -10638,8 +10652,8 @@
       <c r="K430" s="39"/>
     </row>
     <row r="431" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B431" s="92"/>
-      <c r="C431" s="90"/>
+      <c r="B431" s="91"/>
+      <c r="C431" s="88"/>
       <c r="D431" s="44"/>
       <c r="E431" s="41"/>
       <c r="F431" s="45"/>
@@ -10650,7 +10664,7 @@
       <c r="K431" s="39"/>
     </row>
     <row r="432" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B432" s="93"/>
+      <c r="B432" s="92"/>
       <c r="C432" s="89"/>
       <c r="D432" s="44"/>
       <c r="E432" s="41"/>
@@ -10662,8 +10676,8 @@
       <c r="K432" s="39"/>
     </row>
     <row r="433" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B433" s="92"/>
-      <c r="C433" s="90"/>
+      <c r="B433" s="91"/>
+      <c r="C433" s="88"/>
       <c r="D433" s="44"/>
       <c r="E433" s="41"/>
       <c r="F433" s="45"/>
@@ -10674,7 +10688,7 @@
       <c r="K433" s="39"/>
     </row>
     <row r="434" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B434" s="93"/>
+      <c r="B434" s="92"/>
       <c r="C434" s="89"/>
       <c r="D434" s="44"/>
       <c r="E434" s="41"/>
@@ -10686,8 +10700,8 @@
       <c r="K434" s="39"/>
     </row>
     <row r="435" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B435" s="92"/>
-      <c r="C435" s="90"/>
+      <c r="B435" s="91"/>
+      <c r="C435" s="88"/>
       <c r="D435" s="44"/>
       <c r="E435" s="41"/>
       <c r="F435" s="45"/>
@@ -10698,7 +10712,7 @@
       <c r="K435" s="39"/>
     </row>
     <row r="436" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B436" s="93"/>
+      <c r="B436" s="92"/>
       <c r="C436" s="89"/>
       <c r="D436" s="44"/>
       <c r="E436" s="41"/>
@@ -10710,8 +10724,8 @@
       <c r="K436" s="39"/>
     </row>
     <row r="437" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B437" s="92"/>
-      <c r="C437" s="90"/>
+      <c r="B437" s="91"/>
+      <c r="C437" s="88"/>
       <c r="D437" s="44"/>
       <c r="E437" s="41"/>
       <c r="F437" s="45"/>
@@ -10722,7 +10736,7 @@
       <c r="K437" s="39"/>
     </row>
     <row r="438" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B438" s="93"/>
+      <c r="B438" s="92"/>
       <c r="C438" s="89"/>
       <c r="D438" s="44"/>
       <c r="E438" s="41"/>
@@ -10734,8 +10748,8 @@
       <c r="K438" s="39"/>
     </row>
     <row r="439" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B439" s="92"/>
-      <c r="C439" s="90"/>
+      <c r="B439" s="91"/>
+      <c r="C439" s="88"/>
       <c r="D439" s="44"/>
       <c r="E439" s="41"/>
       <c r="F439" s="45"/>
@@ -10746,7 +10760,7 @@
       <c r="K439" s="39"/>
     </row>
     <row r="440" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B440" s="93"/>
+      <c r="B440" s="92"/>
       <c r="C440" s="89"/>
       <c r="D440" s="44"/>
       <c r="E440" s="41"/>
@@ -10758,8 +10772,8 @@
       <c r="K440" s="39"/>
     </row>
     <row r="441" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B441" s="92"/>
-      <c r="C441" s="90"/>
+      <c r="B441" s="91"/>
+      <c r="C441" s="88"/>
       <c r="D441" s="44"/>
       <c r="E441" s="41"/>
       <c r="F441" s="45"/>
@@ -10770,7 +10784,7 @@
       <c r="K441" s="39"/>
     </row>
     <row r="442" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B442" s="93"/>
+      <c r="B442" s="92"/>
       <c r="C442" s="89"/>
       <c r="D442" s="44"/>
       <c r="E442" s="41"/>
@@ -10782,8 +10796,8 @@
       <c r="K442" s="39"/>
     </row>
     <row r="443" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B443" s="92"/>
-      <c r="C443" s="90"/>
+      <c r="B443" s="91"/>
+      <c r="C443" s="88"/>
       <c r="D443" s="44"/>
       <c r="E443" s="41"/>
       <c r="F443" s="45"/>
@@ -10794,7 +10808,7 @@
       <c r="K443" s="39"/>
     </row>
     <row r="444" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B444" s="93"/>
+      <c r="B444" s="92"/>
       <c r="C444" s="89"/>
       <c r="D444" s="44"/>
       <c r="E444" s="41"/>
@@ -10806,8 +10820,8 @@
       <c r="K444" s="39"/>
     </row>
     <row r="445" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B445" s="92"/>
-      <c r="C445" s="90"/>
+      <c r="B445" s="91"/>
+      <c r="C445" s="88"/>
       <c r="D445" s="44"/>
       <c r="E445" s="41"/>
       <c r="F445" s="45"/>
@@ -10818,7 +10832,7 @@
       <c r="K445" s="39"/>
     </row>
     <row r="446" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B446" s="93"/>
+      <c r="B446" s="92"/>
       <c r="C446" s="89"/>
       <c r="D446" s="44"/>
       <c r="E446" s="41"/>
@@ -10830,8 +10844,8 @@
       <c r="K446" s="39"/>
     </row>
     <row r="447" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B447" s="92"/>
-      <c r="C447" s="90"/>
+      <c r="B447" s="91"/>
+      <c r="C447" s="88"/>
       <c r="D447" s="44"/>
       <c r="E447" s="41"/>
       <c r="F447" s="45"/>
@@ -10842,7 +10856,7 @@
       <c r="K447" s="39"/>
     </row>
     <row r="448" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B448" s="93"/>
+      <c r="B448" s="92"/>
       <c r="C448" s="89"/>
       <c r="D448" s="44"/>
       <c r="E448" s="41"/>
@@ -10854,8 +10868,8 @@
       <c r="K448" s="39"/>
     </row>
     <row r="449" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B449" s="92"/>
-      <c r="C449" s="90"/>
+      <c r="B449" s="91"/>
+      <c r="C449" s="88"/>
       <c r="D449" s="44"/>
       <c r="E449" s="41"/>
       <c r="F449" s="45"/>
@@ -10866,7 +10880,7 @@
       <c r="K449" s="39"/>
     </row>
     <row r="450" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B450" s="93"/>
+      <c r="B450" s="92"/>
       <c r="C450" s="89"/>
       <c r="D450" s="44"/>
       <c r="E450" s="41"/>
@@ -10878,8 +10892,8 @@
       <c r="K450" s="39"/>
     </row>
     <row r="451" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B451" s="92"/>
-      <c r="C451" s="90"/>
+      <c r="B451" s="91"/>
+      <c r="C451" s="88"/>
       <c r="D451" s="44"/>
       <c r="E451" s="41"/>
       <c r="F451" s="45"/>
@@ -10890,7 +10904,7 @@
       <c r="K451" s="39"/>
     </row>
     <row r="452" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B452" s="93"/>
+      <c r="B452" s="92"/>
       <c r="C452" s="89"/>
       <c r="D452" s="44"/>
       <c r="E452" s="41"/>
@@ -10902,8 +10916,8 @@
       <c r="K452" s="39"/>
     </row>
     <row r="453" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B453" s="92"/>
-      <c r="C453" s="90"/>
+      <c r="B453" s="91"/>
+      <c r="C453" s="88"/>
       <c r="D453" s="44"/>
       <c r="E453" s="41"/>
       <c r="F453" s="45"/>
@@ -10914,7 +10928,7 @@
       <c r="K453" s="39"/>
     </row>
     <row r="454" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B454" s="93"/>
+      <c r="B454" s="92"/>
       <c r="C454" s="89"/>
       <c r="D454" s="44"/>
       <c r="E454" s="41"/>
@@ -10926,8 +10940,8 @@
       <c r="K454" s="39"/>
     </row>
     <row r="455" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B455" s="92"/>
-      <c r="C455" s="90"/>
+      <c r="B455" s="91"/>
+      <c r="C455" s="88"/>
       <c r="D455" s="44"/>
       <c r="E455" s="41"/>
       <c r="F455" s="45"/>
@@ -10938,7 +10952,7 @@
       <c r="K455" s="39"/>
     </row>
     <row r="456" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B456" s="93"/>
+      <c r="B456" s="92"/>
       <c r="C456" s="89"/>
       <c r="D456" s="44"/>
       <c r="E456" s="41"/>
@@ -10950,8 +10964,8 @@
       <c r="K456" s="39"/>
     </row>
     <row r="457" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B457" s="92"/>
-      <c r="C457" s="90"/>
+      <c r="B457" s="91"/>
+      <c r="C457" s="88"/>
       <c r="D457" s="44"/>
       <c r="E457" s="41"/>
       <c r="F457" s="45"/>
@@ -10962,7 +10976,7 @@
       <c r="K457" s="39"/>
     </row>
     <row r="458" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B458" s="93"/>
+      <c r="B458" s="92"/>
       <c r="C458" s="89"/>
       <c r="D458" s="44"/>
       <c r="E458" s="41"/>
@@ -10974,8 +10988,8 @@
       <c r="K458" s="39"/>
     </row>
     <row r="459" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B459" s="92"/>
-      <c r="C459" s="90"/>
+      <c r="B459" s="91"/>
+      <c r="C459" s="88"/>
       <c r="D459" s="44"/>
       <c r="E459" s="41"/>
       <c r="F459" s="45"/>
@@ -10986,7 +11000,7 @@
       <c r="K459" s="39"/>
     </row>
     <row r="460" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B460" s="93"/>
+      <c r="B460" s="92"/>
       <c r="C460" s="89"/>
       <c r="D460" s="44"/>
       <c r="E460" s="41"/>
@@ -10998,8 +11012,8 @@
       <c r="K460" s="39"/>
     </row>
     <row r="461" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B461" s="92"/>
-      <c r="C461" s="90"/>
+      <c r="B461" s="91"/>
+      <c r="C461" s="88"/>
       <c r="D461" s="44"/>
       <c r="E461" s="41"/>
       <c r="F461" s="45"/>
@@ -11010,7 +11024,7 @@
       <c r="K461" s="39"/>
     </row>
     <row r="462" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B462" s="93"/>
+      <c r="B462" s="92"/>
       <c r="C462" s="89"/>
       <c r="D462" s="44"/>
       <c r="E462" s="41"/>
@@ -11022,8 +11036,8 @@
       <c r="K462" s="39"/>
     </row>
     <row r="463" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B463" s="92"/>
-      <c r="C463" s="90"/>
+      <c r="B463" s="91"/>
+      <c r="C463" s="88"/>
       <c r="D463" s="44"/>
       <c r="E463" s="41"/>
       <c r="F463" s="45"/>
@@ -11034,7 +11048,7 @@
       <c r="K463" s="39"/>
     </row>
     <row r="464" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B464" s="93"/>
+      <c r="B464" s="92"/>
       <c r="C464" s="89"/>
       <c r="D464" s="44"/>
       <c r="E464" s="41"/>
@@ -11046,8 +11060,8 @@
       <c r="K464" s="39"/>
     </row>
     <row r="465" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B465" s="92"/>
-      <c r="C465" s="90"/>
+      <c r="B465" s="91"/>
+      <c r="C465" s="88"/>
       <c r="D465" s="44"/>
       <c r="E465" s="41"/>
       <c r="F465" s="45"/>
@@ -11058,7 +11072,7 @@
       <c r="K465" s="39"/>
     </row>
     <row r="466" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B466" s="93"/>
+      <c r="B466" s="92"/>
       <c r="C466" s="89"/>
       <c r="D466" s="44"/>
       <c r="E466" s="41"/>
@@ -11070,8 +11084,8 @@
       <c r="K466" s="39"/>
     </row>
     <row r="467" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B467" s="92"/>
-      <c r="C467" s="90"/>
+      <c r="B467" s="91"/>
+      <c r="C467" s="88"/>
       <c r="D467" s="44"/>
       <c r="E467" s="41"/>
       <c r="F467" s="45"/>
@@ -11082,7 +11096,7 @@
       <c r="K467" s="39"/>
     </row>
     <row r="468" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B468" s="93"/>
+      <c r="B468" s="92"/>
       <c r="C468" s="89"/>
       <c r="D468" s="44"/>
       <c r="E468" s="41"/>
@@ -11094,8 +11108,8 @@
       <c r="K468" s="39"/>
     </row>
     <row r="469" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B469" s="92"/>
-      <c r="C469" s="90"/>
+      <c r="B469" s="91"/>
+      <c r="C469" s="88"/>
       <c r="D469" s="44"/>
       <c r="E469" s="41"/>
       <c r="F469" s="45"/>
@@ -11106,7 +11120,7 @@
       <c r="K469" s="39"/>
     </row>
     <row r="470" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B470" s="93"/>
+      <c r="B470" s="92"/>
       <c r="C470" s="89"/>
       <c r="D470" s="44"/>
       <c r="E470" s="41"/>
@@ -11118,8 +11132,8 @@
       <c r="K470" s="39"/>
     </row>
     <row r="471" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B471" s="92"/>
-      <c r="C471" s="90"/>
+      <c r="B471" s="91"/>
+      <c r="C471" s="88"/>
       <c r="D471" s="44"/>
       <c r="E471" s="41"/>
       <c r="F471" s="45"/>
@@ -11130,7 +11144,7 @@
       <c r="K471" s="39"/>
     </row>
     <row r="472" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B472" s="93"/>
+      <c r="B472" s="92"/>
       <c r="C472" s="89"/>
       <c r="D472" s="44"/>
       <c r="E472" s="41"/>
@@ -11144,6 +11158,522 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="540">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="C461:C462"/>
+    <mergeCell ref="C463:C464"/>
+    <mergeCell ref="C465:C466"/>
+    <mergeCell ref="C467:C468"/>
+    <mergeCell ref="C469:C470"/>
+    <mergeCell ref="C471:C472"/>
+    <mergeCell ref="C449:C450"/>
+    <mergeCell ref="C451:C452"/>
+    <mergeCell ref="C453:C454"/>
+    <mergeCell ref="C455:C456"/>
+    <mergeCell ref="C457:C458"/>
+    <mergeCell ref="C459:C460"/>
+    <mergeCell ref="C437:C438"/>
+    <mergeCell ref="C439:C440"/>
+    <mergeCell ref="C441:C442"/>
+    <mergeCell ref="C443:C444"/>
+    <mergeCell ref="C445:C446"/>
+    <mergeCell ref="C447:C448"/>
+    <mergeCell ref="C425:C426"/>
+    <mergeCell ref="C427:C428"/>
+    <mergeCell ref="C429:C430"/>
+    <mergeCell ref="C431:C432"/>
+    <mergeCell ref="C433:C434"/>
+    <mergeCell ref="C435:C436"/>
+    <mergeCell ref="C413:C414"/>
+    <mergeCell ref="C415:C416"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="C419:C420"/>
+    <mergeCell ref="C421:C422"/>
+    <mergeCell ref="C423:C424"/>
+    <mergeCell ref="C401:C402"/>
+    <mergeCell ref="C403:C404"/>
+    <mergeCell ref="C405:C406"/>
+    <mergeCell ref="C407:C408"/>
+    <mergeCell ref="C409:C410"/>
+    <mergeCell ref="C411:C412"/>
+    <mergeCell ref="C389:C390"/>
+    <mergeCell ref="C391:C392"/>
+    <mergeCell ref="C393:C394"/>
+    <mergeCell ref="C395:C396"/>
+    <mergeCell ref="C397:C398"/>
+    <mergeCell ref="C399:C400"/>
+    <mergeCell ref="C377:C378"/>
+    <mergeCell ref="C379:C380"/>
+    <mergeCell ref="C381:C382"/>
+    <mergeCell ref="C383:C384"/>
+    <mergeCell ref="C385:C386"/>
+    <mergeCell ref="C387:C388"/>
+    <mergeCell ref="C365:C366"/>
+    <mergeCell ref="C367:C368"/>
+    <mergeCell ref="C369:C370"/>
+    <mergeCell ref="C371:C372"/>
+    <mergeCell ref="C373:C374"/>
+    <mergeCell ref="C375:C376"/>
+    <mergeCell ref="C353:C354"/>
+    <mergeCell ref="C355:C356"/>
+    <mergeCell ref="C357:C358"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="C361:C362"/>
+    <mergeCell ref="C363:C364"/>
+    <mergeCell ref="C341:C342"/>
+    <mergeCell ref="C343:C344"/>
+    <mergeCell ref="C345:C346"/>
+    <mergeCell ref="C347:C348"/>
+    <mergeCell ref="C349:C350"/>
+    <mergeCell ref="C351:C352"/>
+    <mergeCell ref="C329:C330"/>
+    <mergeCell ref="C331:C332"/>
+    <mergeCell ref="C333:C334"/>
+    <mergeCell ref="C335:C336"/>
+    <mergeCell ref="C337:C338"/>
+    <mergeCell ref="C339:C340"/>
+    <mergeCell ref="C317:C318"/>
+    <mergeCell ref="C319:C320"/>
+    <mergeCell ref="C321:C322"/>
+    <mergeCell ref="C323:C324"/>
+    <mergeCell ref="C325:C326"/>
+    <mergeCell ref="C327:C328"/>
+    <mergeCell ref="C305:C306"/>
+    <mergeCell ref="C307:C308"/>
+    <mergeCell ref="C309:C310"/>
+    <mergeCell ref="C311:C312"/>
+    <mergeCell ref="C313:C314"/>
+    <mergeCell ref="C315:C316"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="C295:C296"/>
+    <mergeCell ref="C297:C298"/>
+    <mergeCell ref="C299:C300"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="C303:C304"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="C283:C284"/>
+    <mergeCell ref="C285:C286"/>
+    <mergeCell ref="C287:C288"/>
+    <mergeCell ref="C289:C290"/>
+    <mergeCell ref="C291:C292"/>
+    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="C271:C272"/>
+    <mergeCell ref="C273:C274"/>
+    <mergeCell ref="C275:C276"/>
+    <mergeCell ref="C277:C278"/>
+    <mergeCell ref="C279:C280"/>
+    <mergeCell ref="C257:C258"/>
+    <mergeCell ref="C259:C260"/>
+    <mergeCell ref="C261:C262"/>
+    <mergeCell ref="C263:C264"/>
+    <mergeCell ref="C265:C266"/>
+    <mergeCell ref="C267:C268"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="C247:C248"/>
+    <mergeCell ref="C249:C250"/>
+    <mergeCell ref="C251:C252"/>
+    <mergeCell ref="C253:C254"/>
+    <mergeCell ref="C255:C256"/>
+    <mergeCell ref="C233:C234"/>
+    <mergeCell ref="C235:C236"/>
+    <mergeCell ref="C237:C238"/>
+    <mergeCell ref="C239:C240"/>
+    <mergeCell ref="C241:C242"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C223:C224"/>
+    <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C227:C228"/>
+    <mergeCell ref="C229:C230"/>
+    <mergeCell ref="C231:C232"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="C215:C216"/>
+    <mergeCell ref="C217:C218"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C197:C198"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="C203:C204"/>
+    <mergeCell ref="C205:C206"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="C195:C196"/>
+    <mergeCell ref="E153:E154"/>
+    <mergeCell ref="E155:E156"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="E147:E148"/>
+    <mergeCell ref="E149:E150"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="E133:E134"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E125:E126"/>
+    <mergeCell ref="E127:E128"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C150"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="C153:C154"/>
+    <mergeCell ref="C155:C156"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="C163:C164"/>
+    <mergeCell ref="B471:B472"/>
+    <mergeCell ref="C165:C166"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="C175:C176"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="C179:C180"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="B459:B460"/>
+    <mergeCell ref="B461:B462"/>
+    <mergeCell ref="B463:B464"/>
+    <mergeCell ref="B465:B466"/>
+    <mergeCell ref="B467:B468"/>
+    <mergeCell ref="B469:B470"/>
+    <mergeCell ref="B447:B448"/>
+    <mergeCell ref="B449:B450"/>
+    <mergeCell ref="B451:B452"/>
+    <mergeCell ref="B453:B454"/>
+    <mergeCell ref="B455:B456"/>
+    <mergeCell ref="B457:B458"/>
+    <mergeCell ref="B435:B436"/>
+    <mergeCell ref="B437:B438"/>
+    <mergeCell ref="B439:B440"/>
+    <mergeCell ref="B441:B442"/>
+    <mergeCell ref="B443:B444"/>
+    <mergeCell ref="B445:B446"/>
+    <mergeCell ref="B423:B424"/>
+    <mergeCell ref="B425:B426"/>
+    <mergeCell ref="B427:B428"/>
+    <mergeCell ref="B429:B430"/>
+    <mergeCell ref="B431:B432"/>
+    <mergeCell ref="B433:B434"/>
+    <mergeCell ref="B411:B412"/>
+    <mergeCell ref="B413:B414"/>
+    <mergeCell ref="B415:B416"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="B419:B420"/>
+    <mergeCell ref="B421:B422"/>
+    <mergeCell ref="B399:B400"/>
+    <mergeCell ref="B401:B402"/>
+    <mergeCell ref="B403:B404"/>
+    <mergeCell ref="B405:B406"/>
+    <mergeCell ref="B407:B408"/>
+    <mergeCell ref="B409:B410"/>
+    <mergeCell ref="B387:B388"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="B391:B392"/>
+    <mergeCell ref="B393:B394"/>
+    <mergeCell ref="B395:B396"/>
+    <mergeCell ref="B397:B398"/>
+    <mergeCell ref="B375:B376"/>
+    <mergeCell ref="B377:B378"/>
+    <mergeCell ref="B379:B380"/>
+    <mergeCell ref="B381:B382"/>
+    <mergeCell ref="B383:B384"/>
+    <mergeCell ref="B385:B386"/>
+    <mergeCell ref="B363:B364"/>
+    <mergeCell ref="B365:B366"/>
+    <mergeCell ref="B367:B368"/>
+    <mergeCell ref="B369:B370"/>
+    <mergeCell ref="B371:B372"/>
+    <mergeCell ref="B373:B374"/>
+    <mergeCell ref="B351:B352"/>
+    <mergeCell ref="B353:B354"/>
+    <mergeCell ref="B355:B356"/>
+    <mergeCell ref="B357:B358"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="B361:B362"/>
+    <mergeCell ref="B339:B340"/>
+    <mergeCell ref="B341:B342"/>
+    <mergeCell ref="B343:B344"/>
+    <mergeCell ref="B345:B346"/>
+    <mergeCell ref="B347:B348"/>
+    <mergeCell ref="B349:B350"/>
+    <mergeCell ref="B327:B328"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="B331:B332"/>
+    <mergeCell ref="B333:B334"/>
+    <mergeCell ref="B335:B336"/>
+    <mergeCell ref="B337:B338"/>
+    <mergeCell ref="B315:B316"/>
+    <mergeCell ref="B317:B318"/>
+    <mergeCell ref="B319:B320"/>
+    <mergeCell ref="B321:B322"/>
+    <mergeCell ref="B323:B324"/>
+    <mergeCell ref="B325:B326"/>
+    <mergeCell ref="B303:B304"/>
+    <mergeCell ref="B305:B306"/>
+    <mergeCell ref="B307:B308"/>
+    <mergeCell ref="B309:B310"/>
+    <mergeCell ref="B311:B312"/>
+    <mergeCell ref="B313:B314"/>
+    <mergeCell ref="B291:B292"/>
+    <mergeCell ref="B293:B294"/>
+    <mergeCell ref="B295:B296"/>
+    <mergeCell ref="B297:B298"/>
+    <mergeCell ref="B299:B300"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="B283:B284"/>
+    <mergeCell ref="B285:B286"/>
+    <mergeCell ref="B287:B288"/>
+    <mergeCell ref="B289:B290"/>
+    <mergeCell ref="B267:B268"/>
+    <mergeCell ref="B269:B270"/>
+    <mergeCell ref="B271:B272"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="B275:B276"/>
+    <mergeCell ref="B277:B278"/>
+    <mergeCell ref="B255:B256"/>
+    <mergeCell ref="B257:B258"/>
+    <mergeCell ref="B259:B260"/>
+    <mergeCell ref="B261:B262"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="B265:B266"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="B247:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B252"/>
+    <mergeCell ref="B253:B254"/>
+    <mergeCell ref="B231:B232"/>
+    <mergeCell ref="B233:B234"/>
+    <mergeCell ref="B235:B236"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B239:B240"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="B225:B226"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="B229:B230"/>
+    <mergeCell ref="B207:B208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B205:B206"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B192"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B175:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B166"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
     <mergeCell ref="C183:C184"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B15:B16"/>
@@ -11168,522 +11698,6 @@
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B166"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="B183:B184"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B192"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B175:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B179:B180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="B207:B208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B195:B196"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B205:B206"/>
-    <mergeCell ref="B231:B232"/>
-    <mergeCell ref="B233:B234"/>
-    <mergeCell ref="B235:B236"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B239:B240"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="B225:B226"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="B229:B230"/>
-    <mergeCell ref="B255:B256"/>
-    <mergeCell ref="B257:B258"/>
-    <mergeCell ref="B259:B260"/>
-    <mergeCell ref="B261:B262"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="B265:B266"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="B247:B248"/>
-    <mergeCell ref="B249:B250"/>
-    <mergeCell ref="B251:B252"/>
-    <mergeCell ref="B253:B254"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="B283:B284"/>
-    <mergeCell ref="B285:B286"/>
-    <mergeCell ref="B287:B288"/>
-    <mergeCell ref="B289:B290"/>
-    <mergeCell ref="B267:B268"/>
-    <mergeCell ref="B269:B270"/>
-    <mergeCell ref="B271:B272"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="B275:B276"/>
-    <mergeCell ref="B277:B278"/>
-    <mergeCell ref="B303:B304"/>
-    <mergeCell ref="B305:B306"/>
-    <mergeCell ref="B307:B308"/>
-    <mergeCell ref="B309:B310"/>
-    <mergeCell ref="B311:B312"/>
-    <mergeCell ref="B313:B314"/>
-    <mergeCell ref="B291:B292"/>
-    <mergeCell ref="B293:B294"/>
-    <mergeCell ref="B295:B296"/>
-    <mergeCell ref="B297:B298"/>
-    <mergeCell ref="B299:B300"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="B327:B328"/>
-    <mergeCell ref="B329:B330"/>
-    <mergeCell ref="B331:B332"/>
-    <mergeCell ref="B333:B334"/>
-    <mergeCell ref="B335:B336"/>
-    <mergeCell ref="B337:B338"/>
-    <mergeCell ref="B315:B316"/>
-    <mergeCell ref="B317:B318"/>
-    <mergeCell ref="B319:B320"/>
-    <mergeCell ref="B321:B322"/>
-    <mergeCell ref="B323:B324"/>
-    <mergeCell ref="B325:B326"/>
-    <mergeCell ref="B351:B352"/>
-    <mergeCell ref="B353:B354"/>
-    <mergeCell ref="B355:B356"/>
-    <mergeCell ref="B357:B358"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="B361:B362"/>
-    <mergeCell ref="B339:B340"/>
-    <mergeCell ref="B341:B342"/>
-    <mergeCell ref="B343:B344"/>
-    <mergeCell ref="B345:B346"/>
-    <mergeCell ref="B347:B348"/>
-    <mergeCell ref="B349:B350"/>
-    <mergeCell ref="B375:B376"/>
-    <mergeCell ref="B377:B378"/>
-    <mergeCell ref="B379:B380"/>
-    <mergeCell ref="B381:B382"/>
-    <mergeCell ref="B383:B384"/>
-    <mergeCell ref="B385:B386"/>
-    <mergeCell ref="B363:B364"/>
-    <mergeCell ref="B365:B366"/>
-    <mergeCell ref="B367:B368"/>
-    <mergeCell ref="B369:B370"/>
-    <mergeCell ref="B371:B372"/>
-    <mergeCell ref="B373:B374"/>
-    <mergeCell ref="B399:B400"/>
-    <mergeCell ref="B401:B402"/>
-    <mergeCell ref="B403:B404"/>
-    <mergeCell ref="B405:B406"/>
-    <mergeCell ref="B407:B408"/>
-    <mergeCell ref="B409:B410"/>
-    <mergeCell ref="B387:B388"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="B391:B392"/>
-    <mergeCell ref="B393:B394"/>
-    <mergeCell ref="B395:B396"/>
-    <mergeCell ref="B397:B398"/>
-    <mergeCell ref="B423:B424"/>
-    <mergeCell ref="B425:B426"/>
-    <mergeCell ref="B427:B428"/>
-    <mergeCell ref="B429:B430"/>
-    <mergeCell ref="B431:B432"/>
-    <mergeCell ref="B433:B434"/>
-    <mergeCell ref="B411:B412"/>
-    <mergeCell ref="B413:B414"/>
-    <mergeCell ref="B415:B416"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="B419:B420"/>
-    <mergeCell ref="B421:B422"/>
-    <mergeCell ref="B449:B450"/>
-    <mergeCell ref="B451:B452"/>
-    <mergeCell ref="B453:B454"/>
-    <mergeCell ref="B455:B456"/>
-    <mergeCell ref="B457:B458"/>
-    <mergeCell ref="B435:B436"/>
-    <mergeCell ref="B437:B438"/>
-    <mergeCell ref="B439:B440"/>
-    <mergeCell ref="B441:B442"/>
-    <mergeCell ref="B443:B444"/>
-    <mergeCell ref="B445:B446"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="C153:C154"/>
-    <mergeCell ref="C155:C156"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="C161:C162"/>
-    <mergeCell ref="C163:C164"/>
-    <mergeCell ref="B471:B472"/>
-    <mergeCell ref="C165:C166"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="C175:C176"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="C179:C180"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="B459:B460"/>
-    <mergeCell ref="B461:B462"/>
-    <mergeCell ref="B463:B464"/>
-    <mergeCell ref="B465:B466"/>
-    <mergeCell ref="B467:B468"/>
-    <mergeCell ref="B469:B470"/>
-    <mergeCell ref="B447:B448"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C149:C150"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="E125:E126"/>
-    <mergeCell ref="E127:E128"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="E153:E154"/>
-    <mergeCell ref="E155:E156"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="E147:E148"/>
-    <mergeCell ref="E149:E150"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="E133:E134"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="C197:C198"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="C203:C204"/>
-    <mergeCell ref="C205:C206"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="C191:C192"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="C195:C196"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C223:C224"/>
-    <mergeCell ref="C225:C226"/>
-    <mergeCell ref="C227:C228"/>
-    <mergeCell ref="C229:C230"/>
-    <mergeCell ref="C231:C232"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="C211:C212"/>
-    <mergeCell ref="C213:C214"/>
-    <mergeCell ref="C215:C216"/>
-    <mergeCell ref="C217:C218"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="C247:C248"/>
-    <mergeCell ref="C249:C250"/>
-    <mergeCell ref="C251:C252"/>
-    <mergeCell ref="C253:C254"/>
-    <mergeCell ref="C255:C256"/>
-    <mergeCell ref="C233:C234"/>
-    <mergeCell ref="C235:C236"/>
-    <mergeCell ref="C237:C238"/>
-    <mergeCell ref="C239:C240"/>
-    <mergeCell ref="C241:C242"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="C269:C270"/>
-    <mergeCell ref="C271:C272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="C275:C276"/>
-    <mergeCell ref="C277:C278"/>
-    <mergeCell ref="C279:C280"/>
-    <mergeCell ref="C257:C258"/>
-    <mergeCell ref="C259:C260"/>
-    <mergeCell ref="C261:C262"/>
-    <mergeCell ref="C263:C264"/>
-    <mergeCell ref="C265:C266"/>
-    <mergeCell ref="C267:C268"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="C295:C296"/>
-    <mergeCell ref="C297:C298"/>
-    <mergeCell ref="C299:C300"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="C303:C304"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="C283:C284"/>
-    <mergeCell ref="C285:C286"/>
-    <mergeCell ref="C287:C288"/>
-    <mergeCell ref="C289:C290"/>
-    <mergeCell ref="C291:C292"/>
-    <mergeCell ref="C317:C318"/>
-    <mergeCell ref="C319:C320"/>
-    <mergeCell ref="C321:C322"/>
-    <mergeCell ref="C323:C324"/>
-    <mergeCell ref="C325:C326"/>
-    <mergeCell ref="C327:C328"/>
-    <mergeCell ref="C305:C306"/>
-    <mergeCell ref="C307:C308"/>
-    <mergeCell ref="C309:C310"/>
-    <mergeCell ref="C311:C312"/>
-    <mergeCell ref="C313:C314"/>
-    <mergeCell ref="C315:C316"/>
-    <mergeCell ref="C341:C342"/>
-    <mergeCell ref="C343:C344"/>
-    <mergeCell ref="C345:C346"/>
-    <mergeCell ref="C347:C348"/>
-    <mergeCell ref="C349:C350"/>
-    <mergeCell ref="C351:C352"/>
-    <mergeCell ref="C329:C330"/>
-    <mergeCell ref="C331:C332"/>
-    <mergeCell ref="C333:C334"/>
-    <mergeCell ref="C335:C336"/>
-    <mergeCell ref="C337:C338"/>
-    <mergeCell ref="C339:C340"/>
-    <mergeCell ref="C365:C366"/>
-    <mergeCell ref="C367:C368"/>
-    <mergeCell ref="C369:C370"/>
-    <mergeCell ref="C371:C372"/>
-    <mergeCell ref="C373:C374"/>
-    <mergeCell ref="C375:C376"/>
-    <mergeCell ref="C353:C354"/>
-    <mergeCell ref="C355:C356"/>
-    <mergeCell ref="C357:C358"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="C361:C362"/>
-    <mergeCell ref="C363:C364"/>
-    <mergeCell ref="C389:C390"/>
-    <mergeCell ref="C391:C392"/>
-    <mergeCell ref="C393:C394"/>
-    <mergeCell ref="C395:C396"/>
-    <mergeCell ref="C397:C398"/>
-    <mergeCell ref="C399:C400"/>
-    <mergeCell ref="C377:C378"/>
-    <mergeCell ref="C379:C380"/>
-    <mergeCell ref="C381:C382"/>
-    <mergeCell ref="C383:C384"/>
-    <mergeCell ref="C385:C386"/>
-    <mergeCell ref="C387:C388"/>
-    <mergeCell ref="C435:C436"/>
-    <mergeCell ref="C413:C414"/>
-    <mergeCell ref="C415:C416"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="C419:C420"/>
-    <mergeCell ref="C421:C422"/>
-    <mergeCell ref="C423:C424"/>
-    <mergeCell ref="C401:C402"/>
-    <mergeCell ref="C403:C404"/>
-    <mergeCell ref="C405:C406"/>
-    <mergeCell ref="C407:C408"/>
-    <mergeCell ref="C409:C410"/>
-    <mergeCell ref="C411:C412"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="C461:C462"/>
-    <mergeCell ref="C463:C464"/>
-    <mergeCell ref="C465:C466"/>
-    <mergeCell ref="C467:C468"/>
-    <mergeCell ref="C469:C470"/>
-    <mergeCell ref="C471:C472"/>
-    <mergeCell ref="C449:C450"/>
-    <mergeCell ref="C451:C452"/>
-    <mergeCell ref="C453:C454"/>
-    <mergeCell ref="C455:C456"/>
-    <mergeCell ref="C457:C458"/>
-    <mergeCell ref="C459:C460"/>
-    <mergeCell ref="C437:C438"/>
-    <mergeCell ref="C439:C440"/>
-    <mergeCell ref="C441:C442"/>
-    <mergeCell ref="C443:C444"/>
-    <mergeCell ref="C445:C446"/>
-    <mergeCell ref="C447:C448"/>
-    <mergeCell ref="C425:C426"/>
-    <mergeCell ref="C427:C428"/>
-    <mergeCell ref="C429:C430"/>
-    <mergeCell ref="C431:C432"/>
-    <mergeCell ref="C433:C434"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
